--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_6_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_6_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-945853.9715899921</v>
+        <v>-947558.3237267039</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1374511.522853288</v>
+        <v>1374511.522853287</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673439</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>210.1515323233967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>11.82087171661527</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.39121509362494</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>208.0250417001232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>4.171352940466364</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>12.26379190823962</v>
       </c>
     </row>
     <row r="7">
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>33.60023339142369</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>26.92766962273845</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,13 +1215,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,22 +1263,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>47.70036023214384</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>180.5456017236597</v>
       </c>
     </row>
     <row r="10">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>344.8531163447327</v>
       </c>
       <c r="D11" t="n">
-        <v>334.2632661944081</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>361.5105946459869</v>
       </c>
       <c r="F11" t="n">
-        <v>386.4562703154365</v>
+        <v>386.4562703154366</v>
       </c>
       <c r="G11" t="n">
         <v>392.5197736437242</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8530230257433</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>98.94929161302584</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>42.36161512716056</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>192.3312167192737</v>
       </c>
       <c r="U11" t="n">
-        <v>230.7368224059507</v>
+        <v>230.7368224059508</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>307.3324830438601</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>328.8211932911382</v>
       </c>
       <c r="X11" t="n">
-        <v>349.3113252521941</v>
+        <v>291.2536281582583</v>
       </c>
       <c r="Y11" t="n">
         <v>365.8181632297787</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>87.76816761333528</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>146.827045672353</v>
       </c>
       <c r="D13" t="n">
-        <v>128.1956975919375</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>125.0012725966563</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.2101389041963</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.1231296267669</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>265.8414332948985</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>231.7178678975532</v>
       </c>
       <c r="W13" t="n">
-        <v>266.1032229103161</v>
+        <v>266.1032229103162</v>
       </c>
       <c r="X13" t="n">
-        <v>30.31267045926237</v>
+        <v>205.2898799627623</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.1648779258199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,16 +1616,16 @@
         <v>361.5105946459869</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>386.4562703154366</v>
       </c>
       <c r="G14" t="n">
-        <v>392.5197736437242</v>
+        <v>336.7970178856976</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8530230257433</v>
+        <v>294.8530230257434</v>
       </c>
       <c r="I14" t="n">
-        <v>98.94929161302582</v>
+        <v>98.94929161302588</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>134.7491374664341</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>192.3312167192737</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>25.14187061897982</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>307.33248304386</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>328.8211932911382</v>
       </c>
       <c r="X14" t="n">
-        <v>349.3113252521941</v>
+        <v>349.3113252521942</v>
       </c>
       <c r="Y14" t="n">
         <v>365.8181632297787</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>21.65304841868482</v>
+        <v>21.6530484186848</v>
       </c>
       <c r="S15" t="n">
         <v>148.1971745240615</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>159.4122047556624</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>146.827045672353</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>128.1956975919375</v>
       </c>
       <c r="E16" t="n">
-        <v>126.0141872202943</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>146.5111589513637</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.2101389041964</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>55.71913696963171</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>231.7178678975531</v>
+        <v>231.7178678975532</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>266.1032229103162</v>
       </c>
       <c r="X16" t="n">
         <v>205.2898799627623</v>
       </c>
       <c r="Y16" t="n">
-        <v>198.1648779258199</v>
+        <v>35.48546074396803</v>
       </c>
     </row>
     <row r="17">
@@ -1844,16 +1844,16 @@
         <v>300.922571877636</v>
       </c>
       <c r="C17" t="n">
-        <v>283.4616219851629</v>
+        <v>283.461621985163</v>
       </c>
       <c r="D17" t="n">
-        <v>272.8717718348383</v>
+        <v>272.8717718348384</v>
       </c>
       <c r="E17" t="n">
         <v>300.1191002864172</v>
       </c>
       <c r="F17" t="n">
-        <v>325.0647759558668</v>
+        <v>325.0647759558669</v>
       </c>
       <c r="G17" t="n">
         <v>331.1282792841545</v>
@@ -1862,7 +1862,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I17" t="n">
-        <v>37.55779725345613</v>
+        <v>37.55779725345614</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.35764310686442</v>
+        <v>73.35764310686443</v>
       </c>
       <c r="T17" t="n">
         <v>130.939722359704</v>
@@ -1904,10 +1904,10 @@
         <v>245.9409886842903</v>
       </c>
       <c r="W17" t="n">
-        <v>267.4296989315684</v>
+        <v>267.4296989315685</v>
       </c>
       <c r="X17" t="n">
-        <v>287.9198308926244</v>
+        <v>287.9198308926245</v>
       </c>
       <c r="Y17" t="n">
         <v>304.426668870209</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>21.65304841868482</v>
+        <v>21.6530484186848</v>
       </c>
       <c r="S18" t="n">
         <v>148.1971745240615</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>98.02071039609272</v>
       </c>
       <c r="C19" t="n">
-        <v>85.43555131278323</v>
+        <v>85.43555131278326</v>
       </c>
       <c r="D19" t="n">
-        <v>66.80420323236775</v>
+        <v>66.80420323236778</v>
       </c>
       <c r="E19" t="n">
-        <v>64.62269286072457</v>
+        <v>64.6226928607246</v>
       </c>
       <c r="F19" t="n">
-        <v>63.60977823708664</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>85.11966459179395</v>
+        <v>51.05620215113343</v>
       </c>
       <c r="H19" t="n">
-        <v>70.99113916484792</v>
+        <v>70.99113916484795</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>41.7607615363838</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.81864454462662</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>123.7316352671971</v>
@@ -2056,7 +2056,7 @@
         <v>141.6050365425687</v>
       </c>
       <c r="U19" t="n">
-        <v>204.4499389353288</v>
+        <v>204.4499389353289</v>
       </c>
       <c r="V19" t="n">
         <v>170.3263735379834</v>
@@ -2065,7 +2065,7 @@
         <v>204.7117285507464</v>
       </c>
       <c r="X19" t="n">
-        <v>138.1879723132957</v>
+        <v>143.8983856031926</v>
       </c>
       <c r="Y19" t="n">
         <v>136.7733835662502</v>
@@ -2081,16 +2081,16 @@
         <v>300.922571877636</v>
       </c>
       <c r="C20" t="n">
-        <v>283.4616219851629</v>
+        <v>283.461621985163</v>
       </c>
       <c r="D20" t="n">
-        <v>272.8717718348383</v>
+        <v>272.8717718348384</v>
       </c>
       <c r="E20" t="n">
         <v>300.1191002864172</v>
       </c>
       <c r="F20" t="n">
-        <v>325.0647759558668</v>
+        <v>325.0647759558669</v>
       </c>
       <c r="G20" t="n">
         <v>331.1282792841545</v>
@@ -2099,7 +2099,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I20" t="n">
-        <v>37.5577972534561</v>
+        <v>37.55779725345614</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.3576431068644</v>
+        <v>73.35764310686443</v>
       </c>
       <c r="T20" t="n">
-        <v>130.9397223597039</v>
+        <v>130.939722359704</v>
       </c>
       <c r="U20" t="n">
         <v>169.345328046381</v>
@@ -2141,10 +2141,10 @@
         <v>245.9409886842903</v>
       </c>
       <c r="W20" t="n">
-        <v>267.4296989315684</v>
+        <v>267.4296989315685</v>
       </c>
       <c r="X20" t="n">
-        <v>287.9198308926244</v>
+        <v>287.9198308926245</v>
       </c>
       <c r="Y20" t="n">
         <v>304.426668870209</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.0207103960927</v>
+        <v>98.02071039609272</v>
       </c>
       <c r="C22" t="n">
-        <v>85.43555131278323</v>
+        <v>76.71704965666065</v>
       </c>
       <c r="D22" t="n">
-        <v>66.80420323236775</v>
+        <v>66.80420323236778</v>
       </c>
       <c r="E22" t="n">
-        <v>64.62269286072457</v>
+        <v>64.6226928607246</v>
       </c>
       <c r="F22" t="n">
-        <v>62.01627861790638</v>
+        <v>63.60977823708667</v>
       </c>
       <c r="G22" t="n">
-        <v>85.11966459179393</v>
+        <v>85.11966459179396</v>
       </c>
       <c r="H22" t="n">
-        <v>70.99113916484791</v>
+        <v>70.99113916484794</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76076153638377</v>
+        <v>41.7607615363838</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.81864454462661</v>
+        <v>47.81864454462664</v>
       </c>
       <c r="S22" t="n">
         <v>123.7316352671971</v>
@@ -2293,7 +2293,7 @@
         <v>141.6050365425687</v>
       </c>
       <c r="U22" t="n">
-        <v>204.4499389353288</v>
+        <v>204.4499389353289</v>
       </c>
       <c r="V22" t="n">
         <v>170.3263735379834</v>
@@ -2302,10 +2302,10 @@
         <v>204.7117285507464</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.8983856031926</v>
       </c>
       <c r="Y22" t="n">
-        <v>136.7733835662502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.35764310686446</v>
+        <v>73.35764310686443</v>
       </c>
       <c r="T23" t="n">
         <v>130.939722359704</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.02071039609275</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>85.43555131278329</v>
+        <v>37.96437648650241</v>
       </c>
       <c r="D25" t="n">
-        <v>66.80420323236781</v>
+        <v>66.80420323236778</v>
       </c>
       <c r="E25" t="n">
-        <v>64.62269286072463</v>
+        <v>64.6226928607246</v>
       </c>
       <c r="F25" t="n">
-        <v>3.237557606507141</v>
+        <v>63.60977823708667</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>85.11966459179398</v>
       </c>
       <c r="H25" t="n">
-        <v>70.99113916484798</v>
+        <v>70.99113916484795</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76076153638382</v>
+        <v>41.7607615363838</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.81864454462666</v>
+        <v>47.81864454462662</v>
       </c>
       <c r="S25" t="n">
         <v>123.7316352671971</v>
@@ -2573,7 +2573,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I26" t="n">
-        <v>37.55779725345616</v>
+        <v>37.55779725345614</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>73.35764310686444</v>
+        <v>73.35764310686442</v>
       </c>
       <c r="T26" t="n">
         <v>130.939722359704</v>
       </c>
       <c r="U26" t="n">
-        <v>169.3453280463811</v>
+        <v>169.345328046381</v>
       </c>
       <c r="V26" t="n">
         <v>245.9409886842903</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.02071039609274</v>
+        <v>98.02071039609272</v>
       </c>
       <c r="C28" t="n">
-        <v>85.43555131278328</v>
+        <v>85.43555131278326</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>66.80420323236778</v>
       </c>
       <c r="E28" t="n">
-        <v>64.62269286072461</v>
+        <v>64.6226928607246</v>
       </c>
       <c r="F28" t="n">
-        <v>63.60977823708669</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>85.11966459179398</v>
       </c>
       <c r="H28" t="n">
-        <v>70.99113916484797</v>
+        <v>70.99113916484795</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>41.7607615363838</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.81864454462665</v>
+        <v>47.81864454462662</v>
       </c>
       <c r="S28" t="n">
         <v>123.7316352671971</v>
       </c>
       <c r="T28" t="n">
-        <v>141.6050365425687</v>
+        <v>59.72292955728254</v>
       </c>
       <c r="U28" t="n">
-        <v>167.5230184817067</v>
+        <v>204.4499389353289</v>
       </c>
       <c r="V28" t="n">
         <v>170.3263735379834</v>
@@ -2810,7 +2810,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I29" t="n">
-        <v>37.55779725345616</v>
+        <v>37.55779725345617</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>73.35764310686446</v>
+        <v>73.35764310686444</v>
       </c>
       <c r="T29" t="n">
         <v>130.939722359704</v>
@@ -2965,7 +2965,7 @@
         <v>85.11966459179401</v>
       </c>
       <c r="H31" t="n">
-        <v>70.99113916484797</v>
+        <v>70.99113916484798</v>
       </c>
       <c r="I31" t="n">
         <v>41.76076153638382</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.81864454462666</v>
+        <v>47.81864454462665</v>
       </c>
       <c r="S31" t="n">
         <v>123.7316352671971</v>
@@ -3013,10 +3013,10 @@
         <v>204.7117285507464</v>
       </c>
       <c r="X31" t="n">
-        <v>143.8983856031926</v>
+        <v>83.84205169360145</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.71704965665923</v>
+        <v>136.7733835662502</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>294.8199291298099</v>
       </c>
       <c r="C32" t="n">
-        <v>277.3589792373367</v>
+        <v>277.3589792373368</v>
       </c>
       <c r="D32" t="n">
-        <v>266.7691290870122</v>
+        <v>266.7691290870123</v>
       </c>
       <c r="E32" t="n">
-        <v>294.016457538591</v>
+        <v>294.0164575385911</v>
       </c>
       <c r="F32" t="n">
-        <v>318.9621332080407</v>
+        <v>318.9621332080408</v>
       </c>
       <c r="G32" t="n">
-        <v>325.0256365363283</v>
+        <v>325.0256365363284</v>
       </c>
       <c r="H32" t="n">
-        <v>230.9846146020703</v>
+        <v>227.3588859183475</v>
       </c>
       <c r="I32" t="n">
-        <v>31.45515450562991</v>
+        <v>31.45515450563002</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,28 +3074,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.422481774376166</v>
       </c>
       <c r="S32" t="n">
-        <v>67.25500035903819</v>
+        <v>69.45824726838362</v>
       </c>
       <c r="T32" t="n">
-        <v>124.8370796118778</v>
+        <v>124.8370796118779</v>
       </c>
       <c r="U32" t="n">
-        <v>163.2426852985548</v>
+        <v>163.2426852985549</v>
       </c>
       <c r="V32" t="n">
-        <v>239.8383459364641</v>
+        <v>239.8383459364642</v>
       </c>
       <c r="W32" t="n">
-        <v>261.3270561837422</v>
+        <v>261.3270561837423</v>
       </c>
       <c r="X32" t="n">
-        <v>281.8171881447983</v>
+        <v>281.8171881447984</v>
       </c>
       <c r="Y32" t="n">
-        <v>298.3240261223827</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.91806764826649</v>
+        <v>91.9180676482666</v>
       </c>
       <c r="C34" t="n">
-        <v>79.33290856495702</v>
+        <v>79.33290856495714</v>
       </c>
       <c r="D34" t="n">
-        <v>60.70156048454155</v>
+        <v>60.70156048454166</v>
       </c>
       <c r="E34" t="n">
-        <v>58.52005011289836</v>
+        <v>58.52005011289847</v>
       </c>
       <c r="F34" t="n">
-        <v>57.50713548926043</v>
+        <v>57.50713548926055</v>
       </c>
       <c r="G34" t="n">
-        <v>79.01702184396773</v>
+        <v>79.01702184396784</v>
       </c>
       <c r="H34" t="n">
-        <v>64.88849641702171</v>
+        <v>64.88849641702183</v>
       </c>
       <c r="I34" t="n">
-        <v>35.65811878855756</v>
+        <v>35.65811878855767</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.71600179680287</v>
+        <v>41.71600179680051</v>
       </c>
       <c r="S34" t="n">
-        <v>117.6289925193709</v>
+        <v>117.628992519371</v>
       </c>
       <c r="T34" t="n">
-        <v>135.5023937947425</v>
+        <v>135.5023937947426</v>
       </c>
       <c r="U34" t="n">
-        <v>198.3472961875026</v>
+        <v>198.3472961875027</v>
       </c>
       <c r="V34" t="n">
-        <v>164.2237307901572</v>
+        <v>164.2237307901573</v>
       </c>
       <c r="W34" t="n">
-        <v>198.6090858029202</v>
+        <v>198.6090858029203</v>
       </c>
       <c r="X34" t="n">
-        <v>137.7957428553663</v>
+        <v>137.7957428553665</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.670740818424</v>
+        <v>130.6707408184241</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>294.8199291298098</v>
+        <v>294.8199291298099</v>
       </c>
       <c r="C35" t="n">
-        <v>277.3589792373368</v>
+        <v>277.3589792373369</v>
       </c>
       <c r="D35" t="n">
-        <v>266.7691290870122</v>
+        <v>266.7691290870123</v>
       </c>
       <c r="E35" t="n">
-        <v>294.016457538591</v>
+        <v>294.0164575385911</v>
       </c>
       <c r="F35" t="n">
-        <v>318.9621332080407</v>
+        <v>318.9621332080408</v>
       </c>
       <c r="G35" t="n">
-        <v>325.0256365363283</v>
+        <v>325.0256365363284</v>
       </c>
       <c r="H35" t="n">
-        <v>227.3588859183474</v>
+        <v>227.3588859183475</v>
       </c>
       <c r="I35" t="n">
-        <v>31.45515450562992</v>
+        <v>31.45515450563001</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.25500035903821</v>
+        <v>67.25500035903829</v>
       </c>
       <c r="T35" t="n">
-        <v>124.8370796118778</v>
+        <v>124.8370796118779</v>
       </c>
       <c r="U35" t="n">
-        <v>163.2426852985548</v>
+        <v>163.2426852985549</v>
       </c>
       <c r="V35" t="n">
-        <v>239.8383459364641</v>
+        <v>239.8383459364642</v>
       </c>
       <c r="W35" t="n">
-        <v>261.3270561837422</v>
+        <v>261.3270561837423</v>
       </c>
       <c r="X35" t="n">
-        <v>281.8171881447983</v>
+        <v>281.8171881447984</v>
       </c>
       <c r="Y35" t="n">
-        <v>298.3240261223828</v>
+        <v>298.3240261223829</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>136.0790998739098</v>
       </c>
       <c r="H36" t="n">
-        <v>100.0238351529859</v>
+        <v>100.0238351529858</v>
       </c>
       <c r="I36" t="n">
-        <v>45.86296740838225</v>
+        <v>45.86296740838223</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>21.6530484186848</v>
+        <v>21.65304841868478</v>
       </c>
       <c r="S36" t="n">
         <v>148.1971745240615</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.9180676482665</v>
+        <v>91.91806764826661</v>
       </c>
       <c r="C37" t="n">
-        <v>79.33290856495704</v>
+        <v>79.33290856495715</v>
       </c>
       <c r="D37" t="n">
-        <v>60.70156048454156</v>
+        <v>60.70156048454167</v>
       </c>
       <c r="E37" t="n">
-        <v>58.52005011289837</v>
+        <v>58.52005011289849</v>
       </c>
       <c r="F37" t="n">
-        <v>57.50713548926045</v>
+        <v>57.50713548926056</v>
       </c>
       <c r="G37" t="n">
-        <v>79.01702184396774</v>
+        <v>79.01702184396785</v>
       </c>
       <c r="H37" t="n">
-        <v>64.88849641702171</v>
+        <v>64.88849641702183</v>
       </c>
       <c r="I37" t="n">
-        <v>35.65811878855757</v>
+        <v>35.65811878855767</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.71600179680041</v>
+        <v>41.71600179680051</v>
       </c>
       <c r="S37" t="n">
-        <v>117.6289925193709</v>
+        <v>117.628992519371</v>
       </c>
       <c r="T37" t="n">
-        <v>135.5023937947425</v>
+        <v>135.5023937947426</v>
       </c>
       <c r="U37" t="n">
-        <v>198.3472961875026</v>
+        <v>198.3472961875028</v>
       </c>
       <c r="V37" t="n">
-        <v>164.2237307901572</v>
+        <v>164.2237307901573</v>
       </c>
       <c r="W37" t="n">
-        <v>198.6090858029202</v>
+        <v>198.6090858029203</v>
       </c>
       <c r="X37" t="n">
-        <v>137.7957428553664</v>
+        <v>137.7957428553665</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.670740818424</v>
+        <v>130.6707408184241</v>
       </c>
     </row>
     <row r="38">
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.25500035903828</v>
+        <v>67.25500035903829</v>
       </c>
       <c r="T38" t="n">
-        <v>124.8370796118779</v>
+        <v>124.8370796118778</v>
       </c>
       <c r="U38" t="n">
         <v>163.2426852985549</v>
@@ -3676,7 +3676,7 @@
         <v>79.01702184396784</v>
       </c>
       <c r="H40" t="n">
-        <v>64.88849641702181</v>
+        <v>64.8884964170218</v>
       </c>
       <c r="I40" t="n">
         <v>35.65811878855766</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.71600179680048</v>
+        <v>41.7160017968005</v>
       </c>
       <c r="S40" t="n">
         <v>117.628992519371</v>
@@ -3740,16 +3740,16 @@
         <v>294.8199291298099</v>
       </c>
       <c r="C41" t="n">
-        <v>277.3589792373368</v>
+        <v>277.3589792373369</v>
       </c>
       <c r="D41" t="n">
-        <v>266.7691290870122</v>
+        <v>266.7691290870123</v>
       </c>
       <c r="E41" t="n">
         <v>294.0164575385911</v>
       </c>
       <c r="F41" t="n">
-        <v>318.9621332080407</v>
+        <v>318.9621332080408</v>
       </c>
       <c r="G41" t="n">
         <v>325.0256365363284</v>
@@ -3758,7 +3758,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I41" t="n">
-        <v>31.45515450562894</v>
+        <v>31.45515450563003</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.25500035903826</v>
+        <v>67.25500035903832</v>
       </c>
       <c r="T41" t="n">
-        <v>124.8370796118778</v>
+        <v>124.8370796118779</v>
       </c>
       <c r="U41" t="n">
         <v>163.2426852985549</v>
@@ -3803,7 +3803,7 @@
         <v>261.3270561837423</v>
       </c>
       <c r="X41" t="n">
-        <v>281.8171881447983</v>
+        <v>281.8171881447984</v>
       </c>
       <c r="Y41" t="n">
         <v>298.3240261223829</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.91806764826656</v>
+        <v>91.91806764826661</v>
       </c>
       <c r="C43" t="n">
-        <v>79.33290856495709</v>
+        <v>79.33290856495715</v>
       </c>
       <c r="D43" t="n">
-        <v>60.70156048454162</v>
+        <v>60.70156048454167</v>
       </c>
       <c r="E43" t="n">
-        <v>58.52005011289843</v>
+        <v>58.52005011289849</v>
       </c>
       <c r="F43" t="n">
-        <v>57.50713548926051</v>
+        <v>57.50713548926056</v>
       </c>
       <c r="G43" t="n">
-        <v>79.01702184396781</v>
+        <v>79.01702184396785</v>
       </c>
       <c r="H43" t="n">
-        <v>64.88849641702178</v>
+        <v>64.88849641702183</v>
       </c>
       <c r="I43" t="n">
-        <v>35.65811878855763</v>
+        <v>35.65811878855769</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.71600179680046</v>
+        <v>41.71600179680053</v>
       </c>
       <c r="S43" t="n">
         <v>117.628992519371</v>
       </c>
       <c r="T43" t="n">
-        <v>135.5023937947425</v>
+        <v>135.5023937947426</v>
       </c>
       <c r="U43" t="n">
-        <v>198.3472961875027</v>
+        <v>198.3472961875028</v>
       </c>
       <c r="V43" t="n">
         <v>164.2237307901573</v>
@@ -3961,7 +3961,7 @@
         <v>198.6090858029203</v>
       </c>
       <c r="X43" t="n">
-        <v>137.7957428553664</v>
+        <v>137.7957428553665</v>
       </c>
       <c r="Y43" t="n">
         <v>130.6707408184241</v>
@@ -3992,10 +3992,10 @@
         <v>325.0256365363283</v>
       </c>
       <c r="H44" t="n">
-        <v>227.3588859183474</v>
+        <v>227.3588859183475</v>
       </c>
       <c r="I44" t="n">
-        <v>31.45515450562992</v>
+        <v>31.45515450562996</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,19 +4022,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-12</v>
       </c>
       <c r="S44" t="n">
-        <v>67.25500035903821</v>
+        <v>67.25500035903825</v>
       </c>
       <c r="T44" t="n">
         <v>124.8370796118778</v>
       </c>
       <c r="U44" t="n">
-        <v>163.2426852985548</v>
+        <v>163.2426852985549</v>
       </c>
       <c r="V44" t="n">
-        <v>239.8383459364641</v>
+        <v>239.8383459364642</v>
       </c>
       <c r="W44" t="n">
         <v>261.3270561837422</v>
@@ -4043,7 +4043,7 @@
         <v>281.8171881447983</v>
       </c>
       <c r="Y44" t="n">
-        <v>298.3240261223828</v>
+        <v>298.3240261223829</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.9180676482665</v>
+        <v>91.91806764826654</v>
       </c>
       <c r="C46" t="n">
-        <v>79.33290856495704</v>
+        <v>79.33290856495708</v>
       </c>
       <c r="D46" t="n">
-        <v>60.70156048454156</v>
+        <v>60.7015604845416</v>
       </c>
       <c r="E46" t="n">
-        <v>58.52005011289837</v>
+        <v>58.52005011289842</v>
       </c>
       <c r="F46" t="n">
-        <v>57.50713548926045</v>
+        <v>57.50713548926049</v>
       </c>
       <c r="G46" t="n">
-        <v>79.01702184396775</v>
+        <v>79.0170218439678</v>
       </c>
       <c r="H46" t="n">
-        <v>64.88849641702171</v>
+        <v>64.88849641702177</v>
       </c>
       <c r="I46" t="n">
-        <v>35.65811878856005</v>
+        <v>35.65811878855762</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.71600179680041</v>
+        <v>41.71600179680044</v>
       </c>
       <c r="S46" t="n">
         <v>117.6289925193709</v>
@@ -4189,7 +4189,7 @@
         <v>135.5023937947425</v>
       </c>
       <c r="U46" t="n">
-        <v>198.3472961875026</v>
+        <v>198.3472961875027</v>
       </c>
       <c r="V46" t="n">
         <v>164.2237307901572</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>297.2027203719481</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>53.75394372784808</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>53.75394372784808</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E2" t="n">
-        <v>53.75394372784808</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4352,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T2" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U2" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V2" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W2" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X2" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>297.2027203719481</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>317.2409336147255</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="C3" t="n">
-        <v>305.3006591534979</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="D3" t="n">
-        <v>305.3006591534979</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="E3" t="n">
-        <v>305.3006591534979</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F3" t="n">
-        <v>158.7661011803829</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4413,46 +4413,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>939.4195645069747</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>766.0022199576435</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>563.8156253164095</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>563.8156253164095</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>563.8156253164095</v>
       </c>
       <c r="W3" t="n">
-        <v>485.4562706347935</v>
+        <v>563.8156253164095</v>
       </c>
       <c r="X3" t="n">
-        <v>485.4562706347935</v>
+        <v>563.8156253164095</v>
       </c>
       <c r="Y3" t="n">
-        <v>485.4562706347935</v>
+        <v>563.8156253164095</v>
       </c>
     </row>
     <row r="4">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
         <v>19.28114311021272</v>
@@ -4519,19 +4519,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.68395448076474</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C5" t="n">
-        <v>41.68395448076474</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D5" t="n">
-        <v>41.68395448076474</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E5" t="n">
-        <v>41.68395448076474</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>495.259035872464</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>495.259035872464</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>285.1327311248648</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>347.6362025240296</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C6" t="n">
-        <v>173.1831732429026</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D6" t="n">
-        <v>24.24876358165133</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E6" t="n">
         <v>20.03527576299844</v>
@@ -4647,49 +4647,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>790.6398109613051</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>555.4877027295624</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W6" t="n">
-        <v>555.4877027295624</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="X6" t="n">
-        <v>347.6362025240296</v>
+        <v>191.6603993626354</v>
       </c>
       <c r="Y6" t="n">
-        <v>347.6362025240296</v>
+        <v>179.2727307684539</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>482.2773291604919</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C8" t="n">
-        <v>482.2773291604919</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>482.2773291604919</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E8" t="n">
-        <v>482.2773291604919</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F8" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>725.726105804592</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>482.2773291604919</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>482.2773291604919</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>482.2773291604919</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>317.2494235330527</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="C9" t="n">
-        <v>317.2494235330527</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="D9" t="n">
-        <v>317.2494235330527</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E9" t="n">
-        <v>158.0119685275972</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F9" t="n">
-        <v>158.0119685275972</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4890,13 +4890,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4911,22 +4911,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>485.4647605531208</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>485.4647605531208</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>485.4647605531208</v>
+        <v>781.6878608402728</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2309.231267396519</v>
+        <v>1573.811488777149</v>
       </c>
       <c r="C11" t="n">
-        <v>1960.894786240224</v>
+        <v>1225.475007620854</v>
       </c>
       <c r="D11" t="n">
-        <v>1623.255123417589</v>
+        <v>1225.475007620854</v>
       </c>
       <c r="E11" t="n">
-        <v>1258.092906603461</v>
+        <v>860.312790806725</v>
       </c>
       <c r="F11" t="n">
-        <v>867.7330375979698</v>
+        <v>469.9529218012335</v>
       </c>
       <c r="G11" t="n">
-        <v>471.2484177558241</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="H11" t="n">
-        <v>173.4170813661846</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="I11" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="J11" t="n">
-        <v>260.2054441404284</v>
+        <v>260.2054441404283</v>
       </c>
       <c r="K11" t="n">
-        <v>660.8208179075377</v>
+        <v>660.8208179075378</v>
       </c>
       <c r="L11" t="n">
         <v>1210.096241442436</v>
@@ -5057,7 +5057,7 @@
         <v>3004.568888469954</v>
       </c>
       <c r="P11" t="n">
-        <v>3430.660101634156</v>
+        <v>3430.660101634155</v>
       </c>
       <c r="Q11" t="n">
         <v>3673.415097954388</v>
@@ -5066,25 +5066,25 @@
         <v>3673.415097954388</v>
       </c>
       <c r="S11" t="n">
-        <v>3630.625587724933</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="T11" t="n">
-        <v>3630.625587724933</v>
+        <v>3479.141141672293</v>
       </c>
       <c r="U11" t="n">
-        <v>3397.558090345185</v>
+        <v>3246.073644292545</v>
       </c>
       <c r="V11" t="n">
-        <v>3397.558090345185</v>
+        <v>2935.63679273309</v>
       </c>
       <c r="W11" t="n">
-        <v>3397.558090345185</v>
+        <v>2603.494173247092</v>
       </c>
       <c r="X11" t="n">
-        <v>3044.718367868221</v>
+        <v>2309.298589248851</v>
       </c>
       <c r="Y11" t="n">
-        <v>2675.205071676525</v>
+        <v>1939.785293057155</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I12" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="J12" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="K12" t="n">
-        <v>400.9597691519542</v>
+        <v>319.6362577003533</v>
       </c>
       <c r="L12" t="n">
-        <v>613.4168317267425</v>
+        <v>821.3933465852332</v>
       </c>
       <c r="M12" t="n">
-        <v>789.8748966302585</v>
+        <v>997.8514114887491</v>
       </c>
       <c r="N12" t="n">
-        <v>1459.960876960276</v>
+        <v>1667.937391818767</v>
       </c>
       <c r="O12" t="n">
-        <v>2006.542958788865</v>
+        <v>2214.519473647356</v>
       </c>
       <c r="P12" t="n">
-        <v>2428.220199306442</v>
+        <v>2636.196714164933</v>
       </c>
       <c r="Q12" t="n">
         <v>2657.402498082636</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>329.2228173011017</v>
+        <v>221.7784491028786</v>
       </c>
       <c r="C13" t="n">
-        <v>329.2228173011017</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="D13" t="n">
-        <v>199.732213672882</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="E13" t="n">
-        <v>199.732213672882</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="F13" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="G13" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="H13" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="I13" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="J13" t="n">
-        <v>75.45401965814358</v>
+        <v>75.45401965814344</v>
       </c>
       <c r="K13" t="n">
-        <v>195.5491741164734</v>
+        <v>195.5491741164732</v>
       </c>
       <c r="L13" t="n">
-        <v>399.1026573432035</v>
+        <v>399.1026573432033</v>
       </c>
       <c r="M13" t="n">
-        <v>623.0114736459852</v>
+        <v>623.011473645985</v>
       </c>
       <c r="N13" t="n">
-        <v>847.5115364327547</v>
+        <v>847.5115364327544</v>
       </c>
       <c r="O13" t="n">
         <v>1040.400604995801</v>
       </c>
       <c r="P13" t="n">
-        <v>1184.847502163548</v>
+        <v>1184.847502163547</v>
       </c>
       <c r="Q13" t="n">
         <v>1207.639325881398</v>
       </c>
       <c r="R13" t="n">
-        <v>1097.326054260998</v>
+        <v>1207.639325881398</v>
       </c>
       <c r="S13" t="n">
-        <v>1097.326054260998</v>
+        <v>1020.64626565234</v>
       </c>
       <c r="T13" t="n">
-        <v>1097.326054260998</v>
+        <v>1020.64626565234</v>
       </c>
       <c r="U13" t="n">
-        <v>828.7993539631202</v>
+        <v>1020.64626565234</v>
       </c>
       <c r="V13" t="n">
-        <v>828.7993539631202</v>
+        <v>786.5878132305693</v>
       </c>
       <c r="W13" t="n">
-        <v>560.0082197102756</v>
+        <v>517.7966789777247</v>
       </c>
       <c r="X13" t="n">
-        <v>529.3893606605158</v>
+        <v>310.4331638638233</v>
       </c>
       <c r="Y13" t="n">
-        <v>329.2228173011017</v>
+        <v>310.4331638638233</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1918.871398391028</v>
+        <v>2252.945655519725</v>
       </c>
       <c r="C14" t="n">
-        <v>1570.534917234733</v>
+        <v>1904.609174363429</v>
       </c>
       <c r="D14" t="n">
-        <v>1232.895254412098</v>
+        <v>1566.969511540795</v>
       </c>
       <c r="E14" t="n">
-        <v>867.7330375979701</v>
+        <v>1201.807294726667</v>
       </c>
       <c r="F14" t="n">
-        <v>867.7330375979701</v>
+        <v>811.4474257211755</v>
       </c>
       <c r="G14" t="n">
         <v>471.2484177558244</v>
@@ -5273,7 +5273,7 @@
         <v>173.4170813661846</v>
       </c>
       <c r="I14" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="J14" t="n">
         <v>260.2054441404284</v>
@@ -5282,7 +5282,7 @@
         <v>660.8208179075382</v>
       </c>
       <c r="L14" t="n">
-        <v>1210.096241442437</v>
+        <v>1210.096241442436</v>
       </c>
       <c r="M14" t="n">
         <v>1837.877529641655</v>
@@ -5297,31 +5297,31 @@
         <v>3430.660101634156</v>
       </c>
       <c r="Q14" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954389</v>
       </c>
       <c r="R14" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954389</v>
       </c>
       <c r="S14" t="n">
-        <v>3537.304858089304</v>
+        <v>3673.415097954389</v>
       </c>
       <c r="T14" t="n">
-        <v>3343.030901807209</v>
+        <v>3673.415097954389</v>
       </c>
       <c r="U14" t="n">
-        <v>3317.635072899148</v>
+        <v>3673.415097954389</v>
       </c>
       <c r="V14" t="n">
-        <v>3007.198221339693</v>
+        <v>3673.415097954389</v>
       </c>
       <c r="W14" t="n">
-        <v>3007.198221339693</v>
+        <v>3341.272478468391</v>
       </c>
       <c r="X14" t="n">
-        <v>2654.358498862729</v>
+        <v>2988.432755991427</v>
       </c>
       <c r="Y14" t="n">
-        <v>2284.845202671034</v>
+        <v>2618.919459799731</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I15" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="J15" t="n">
-        <v>190.9942848817977</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="K15" t="n">
-        <v>518.4857520746641</v>
+        <v>400.9597691519543</v>
       </c>
       <c r="L15" t="n">
-        <v>1020.242840959544</v>
+        <v>902.7168580368342</v>
       </c>
       <c r="M15" t="n">
-        <v>1196.70090586306</v>
+        <v>1079.17492294035</v>
       </c>
       <c r="N15" t="n">
-        <v>1775.239017913814</v>
+        <v>1749.260903270368</v>
       </c>
       <c r="O15" t="n">
-        <v>2321.821099742403</v>
+        <v>2295.842985098957</v>
       </c>
       <c r="P15" t="n">
-        <v>2428.220199306442</v>
+        <v>2636.196714164933</v>
       </c>
       <c r="Q15" t="n">
         <v>2657.402498082636</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>348.746429405207</v>
+        <v>351.2690527310988</v>
       </c>
       <c r="C16" t="n">
-        <v>348.746429405207</v>
+        <v>202.9589055873075</v>
       </c>
       <c r="D16" t="n">
-        <v>348.746429405207</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="E16" t="n">
-        <v>221.4593716069299</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="F16" t="n">
-        <v>221.4593716069299</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="G16" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="H16" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="I16" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="J16" t="n">
-        <v>75.45401965814357</v>
+        <v>75.45401965814347</v>
       </c>
       <c r="K16" t="n">
-        <v>195.5491741164734</v>
+        <v>195.5491741164733</v>
       </c>
       <c r="L16" t="n">
         <v>399.1026573432035</v>
       </c>
       <c r="M16" t="n">
-        <v>623.0114736459855</v>
+        <v>623.0114736459853</v>
       </c>
       <c r="N16" t="n">
-        <v>847.511536432755</v>
+        <v>847.5115364327547</v>
       </c>
       <c r="O16" t="n">
-        <v>1040.400604995802</v>
+        <v>1040.400604995801</v>
       </c>
       <c r="P16" t="n">
         <v>1184.847502163548</v>
@@ -5458,28 +5458,28 @@
         <v>1207.639325881398</v>
       </c>
       <c r="R16" t="n">
-        <v>1207.639325881398</v>
+        <v>1097.326054260998</v>
       </c>
       <c r="S16" t="n">
-        <v>1207.639325881398</v>
+        <v>1097.326054260998</v>
       </c>
       <c r="T16" t="n">
-        <v>1207.639325881398</v>
+        <v>1097.326054260998</v>
       </c>
       <c r="U16" t="n">
-        <v>1151.357369346417</v>
+        <v>1097.326054260998</v>
       </c>
       <c r="V16" t="n">
-        <v>917.2989169246459</v>
+        <v>863.2676018392267</v>
       </c>
       <c r="W16" t="n">
-        <v>917.2989169246459</v>
+        <v>594.476467586382</v>
       </c>
       <c r="X16" t="n">
-        <v>709.9354018107447</v>
+        <v>387.1129524724806</v>
       </c>
       <c r="Y16" t="n">
-        <v>509.7688584513306</v>
+        <v>351.2690527310988</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1875.149994147037</v>
+        <v>1875.149994147038</v>
       </c>
       <c r="C17" t="n">
-        <v>1588.825123454953</v>
+        <v>1588.825123454954</v>
       </c>
       <c r="D17" t="n">
         <v>1313.197071096531</v>
       </c>
       <c r="E17" t="n">
-        <v>1010.046464746614</v>
+        <v>1010.046464746615</v>
       </c>
       <c r="F17" t="n">
-        <v>681.6982062053346</v>
+        <v>681.6982062053352</v>
       </c>
       <c r="G17" t="n">
-        <v>347.2251968274007</v>
+        <v>347.2251968274013</v>
       </c>
       <c r="H17" t="n">
-        <v>111.4054709019729</v>
+        <v>111.4054709019728</v>
       </c>
       <c r="I17" t="n">
         <v>73.46830195908777</v>
@@ -5516,7 +5516,7 @@
         <v>260.2054441404284</v>
       </c>
       <c r="K17" t="n">
-        <v>660.8208179075377</v>
+        <v>660.820817907538</v>
       </c>
       <c r="L17" t="n">
         <v>1210.096241442436</v>
@@ -5546,19 +5546,19 @@
         <v>3467.054122735633</v>
       </c>
       <c r="U17" t="n">
-        <v>3295.998235820096</v>
+        <v>3295.998235820097</v>
       </c>
       <c r="V17" t="n">
-        <v>3047.572994724853</v>
+        <v>3047.572994724854</v>
       </c>
       <c r="W17" t="n">
-        <v>2777.441985703067</v>
+        <v>2777.441985703068</v>
       </c>
       <c r="X17" t="n">
-        <v>2486.613873690315</v>
+        <v>2486.613873690316</v>
       </c>
       <c r="Y17" t="n">
-        <v>2179.112187962831</v>
+        <v>2179.112187962832</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>73.46830195908777</v>
       </c>
       <c r="J18" t="n">
-        <v>190.9942848817977</v>
+        <v>190.9942848817978</v>
       </c>
       <c r="K18" t="n">
-        <v>518.4857520746641</v>
+        <v>518.4857520746643</v>
       </c>
       <c r="L18" t="n">
-        <v>653.1108991091194</v>
+        <v>653.1108991091197</v>
       </c>
       <c r="M18" t="n">
-        <v>1290.616977125135</v>
+        <v>1290.616977125136</v>
       </c>
       <c r="N18" t="n">
-        <v>1486.154006855035</v>
+        <v>1960.702957455154</v>
       </c>
       <c r="O18" t="n">
-        <v>2006.542958788865</v>
+        <v>2117.361343199781</v>
       </c>
       <c r="P18" t="n">
         <v>2428.220199306442</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>514.4612609485869</v>
+        <v>457.9840092906444</v>
       </c>
       <c r="C19" t="n">
-        <v>428.1627242690078</v>
+        <v>371.6854726110653</v>
       </c>
       <c r="D19" t="n">
-        <v>360.683731105</v>
+        <v>304.2064794470575</v>
       </c>
       <c r="E19" t="n">
-        <v>295.4082837709348</v>
+        <v>238.931032112992</v>
       </c>
       <c r="F19" t="n">
-        <v>231.1559825213523</v>
+        <v>238.931032112992</v>
       </c>
       <c r="G19" t="n">
-        <v>145.176523337722</v>
+        <v>187.3591107482108</v>
       </c>
       <c r="H19" t="n">
-        <v>73.46830195908777</v>
+        <v>115.6508893695764</v>
       </c>
       <c r="I19" t="n">
         <v>73.46830195908777</v>
       </c>
       <c r="J19" t="n">
-        <v>136.2315990741175</v>
+        <v>136.2315990741174</v>
       </c>
       <c r="K19" t="n">
-        <v>317.1043329484214</v>
+        <v>317.1043329484212</v>
       </c>
       <c r="L19" t="n">
-        <v>581.4353955911255</v>
+        <v>581.4353955911254</v>
       </c>
       <c r="M19" t="n">
-        <v>866.1217913098815</v>
+        <v>866.1217913098812</v>
       </c>
       <c r="N19" t="n">
         <v>1151.399433512625</v>
@@ -5695,28 +5695,28 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R19" t="n">
-        <v>1645.558300053002</v>
+        <v>1693.85996120919</v>
       </c>
       <c r="S19" t="n">
-        <v>1520.576850288156</v>
+        <v>1568.878511444344</v>
       </c>
       <c r="T19" t="n">
-        <v>1377.541459841117</v>
+        <v>1425.843120997305</v>
       </c>
       <c r="U19" t="n">
-        <v>1171.026370007451</v>
+        <v>1219.32803116364</v>
       </c>
       <c r="V19" t="n">
-        <v>998.9795280498922</v>
+        <v>1047.281189206081</v>
       </c>
       <c r="W19" t="n">
-        <v>792.2000042612596</v>
+        <v>840.501665417448</v>
       </c>
       <c r="X19" t="n">
-        <v>652.6161938437891</v>
+        <v>695.1497607677585</v>
       </c>
       <c r="Y19" t="n">
-        <v>514.4612609485869</v>
+        <v>556.9948278725562</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1875.149994147037</v>
+        <v>1875.149994147038</v>
       </c>
       <c r="C20" t="n">
-        <v>1588.825123454953</v>
+        <v>1588.825123454954</v>
       </c>
       <c r="D20" t="n">
-        <v>1313.19707109653</v>
+        <v>1313.197071096531</v>
       </c>
       <c r="E20" t="n">
-        <v>1010.046464746614</v>
+        <v>1010.046464746615</v>
       </c>
       <c r="F20" t="n">
-        <v>681.6982062053344</v>
+        <v>681.6982062053352</v>
       </c>
       <c r="G20" t="n">
-        <v>347.2251968274006</v>
+        <v>347.2251968274013</v>
       </c>
       <c r="H20" t="n">
-        <v>111.4054709019727</v>
+        <v>111.4054709019728</v>
       </c>
       <c r="I20" t="n">
         <v>73.46830195908777</v>
@@ -5783,19 +5783,19 @@
         <v>3467.054122735633</v>
       </c>
       <c r="U20" t="n">
-        <v>3295.998235820096</v>
+        <v>3295.998235820097</v>
       </c>
       <c r="V20" t="n">
-        <v>3047.572994724853</v>
+        <v>3047.572994724854</v>
       </c>
       <c r="W20" t="n">
-        <v>2777.441985703067</v>
+        <v>2777.441985703068</v>
       </c>
       <c r="X20" t="n">
-        <v>2486.613873690315</v>
+        <v>2486.613873690316</v>
       </c>
       <c r="Y20" t="n">
-        <v>2179.112187962831</v>
+        <v>2179.112187962832</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>73.46830195908777</v>
       </c>
       <c r="J21" t="n">
-        <v>108.1955029909775</v>
+        <v>190.9942848817978</v>
       </c>
       <c r="K21" t="n">
-        <v>173.8663855413911</v>
+        <v>518.4857520746643</v>
       </c>
       <c r="L21" t="n">
-        <v>675.6234744262711</v>
+        <v>653.1108991091197</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.129552442287</v>
+        <v>1264.423847230376</v>
       </c>
       <c r="N21" t="n">
-        <v>1983.215532772305</v>
+        <v>1459.960876960276</v>
       </c>
       <c r="O21" t="n">
-        <v>2529.797614600894</v>
+        <v>2006.542958788865</v>
       </c>
       <c r="P21" t="n">
-        <v>2636.196714164933</v>
+        <v>2428.220199306442</v>
       </c>
       <c r="Q21" t="n">
         <v>2657.402498082636</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>555.0342527841459</v>
+        <v>547.8372810296589</v>
       </c>
       <c r="C22" t="n">
-        <v>468.7357161045668</v>
+        <v>470.3453116794966</v>
       </c>
       <c r="D22" t="n">
-        <v>401.256722940559</v>
+        <v>402.8663185154887</v>
       </c>
       <c r="E22" t="n">
-        <v>335.9812756064938</v>
+        <v>337.5908711814235</v>
       </c>
       <c r="F22" t="n">
-        <v>273.3385699318409</v>
+        <v>273.338569931841</v>
       </c>
       <c r="G22" t="n">
         <v>187.3591107482107</v>
@@ -5908,22 +5908,22 @@
         <v>73.46830195908777</v>
       </c>
       <c r="J22" t="n">
-        <v>136.2315990741176</v>
+        <v>136.2315990741175</v>
       </c>
       <c r="K22" t="n">
-        <v>317.1043329484215</v>
+        <v>317.1043329484214</v>
       </c>
       <c r="L22" t="n">
-        <v>581.4353955911256</v>
+        <v>581.4353955911255</v>
       </c>
       <c r="M22" t="n">
-        <v>866.1217913098815</v>
+        <v>866.1217913098814</v>
       </c>
       <c r="N22" t="n">
         <v>1151.399433512625</v>
       </c>
       <c r="O22" t="n">
-        <v>1405.066081491646</v>
+        <v>1405.066081491645</v>
       </c>
       <c r="P22" t="n">
         <v>1610.290558075366</v>
@@ -5944,16 +5944,16 @@
         <v>1171.026370007452</v>
       </c>
       <c r="V22" t="n">
-        <v>998.9795280498928</v>
+        <v>998.9795280498927</v>
       </c>
       <c r="W22" t="n">
         <v>792.2000042612599</v>
       </c>
       <c r="X22" t="n">
-        <v>792.2000042612599</v>
+        <v>646.8480996115708</v>
       </c>
       <c r="Y22" t="n">
-        <v>654.0450713660578</v>
+        <v>646.8480996115708</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1875.149994147038</v>
+        <v>1875.149994147037</v>
       </c>
       <c r="C23" t="n">
-        <v>1588.825123454954</v>
+        <v>1588.825123454953</v>
       </c>
       <c r="D23" t="n">
         <v>1313.197071096531</v>
       </c>
       <c r="E23" t="n">
-        <v>1010.046464746615</v>
+        <v>1010.046464746614</v>
       </c>
       <c r="F23" t="n">
-        <v>681.6982062053355</v>
+        <v>681.6982062053346</v>
       </c>
       <c r="G23" t="n">
-        <v>347.225196827401</v>
+        <v>347.2251968274007</v>
       </c>
       <c r="H23" t="n">
-        <v>111.405470901973</v>
+        <v>111.4054709019728</v>
       </c>
       <c r="I23" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J23" t="n">
         <v>260.2054441404284</v>
@@ -5999,19 +5999,19 @@
         <v>1837.877529641655</v>
       </c>
       <c r="N23" t="n">
-        <v>2461.184977863255</v>
+        <v>2461.184977863254</v>
       </c>
       <c r="O23" t="n">
-        <v>3004.568888469955</v>
+        <v>3004.568888469954</v>
       </c>
       <c r="P23" t="n">
         <v>3430.660101634156</v>
       </c>
       <c r="Q23" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R23" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S23" t="n">
         <v>3599.316468553515</v>
@@ -6020,19 +6020,19 @@
         <v>3467.054122735633</v>
       </c>
       <c r="U23" t="n">
-        <v>3295.998235820097</v>
+        <v>3295.998235820096</v>
       </c>
       <c r="V23" t="n">
-        <v>3047.572994724854</v>
+        <v>3047.572994724853</v>
       </c>
       <c r="W23" t="n">
-        <v>2777.441985703068</v>
+        <v>2777.441985703067</v>
       </c>
       <c r="X23" t="n">
-        <v>2486.613873690316</v>
+        <v>2486.613873690315</v>
       </c>
       <c r="Y23" t="n">
-        <v>2179.112187962832</v>
+        <v>2179.112187962831</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I24" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J24" t="n">
         <v>190.9942848817978</v>
@@ -6072,16 +6072,16 @@
         <v>518.4857520746643</v>
       </c>
       <c r="L24" t="n">
-        <v>1020.242840959544</v>
+        <v>857.5706556517425</v>
       </c>
       <c r="M24" t="n">
-        <v>1264.423847230376</v>
+        <v>1495.076733667758</v>
       </c>
       <c r="N24" t="n">
-        <v>1459.960876960276</v>
+        <v>2165.162713997776</v>
       </c>
       <c r="O24" t="n">
-        <v>2006.542958788865</v>
+        <v>2321.821099742403</v>
       </c>
       <c r="P24" t="n">
         <v>2428.220199306442</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>409.6823481344554</v>
+        <v>508.6931667163677</v>
       </c>
       <c r="C25" t="n">
-        <v>323.3838114548763</v>
+        <v>470.3453116794967</v>
       </c>
       <c r="D25" t="n">
-        <v>255.9048182908684</v>
+        <v>402.8663185154888</v>
       </c>
       <c r="E25" t="n">
-        <v>190.6293709568031</v>
+        <v>337.5908711814236</v>
       </c>
       <c r="F25" t="n">
-        <v>187.3591107482108</v>
+        <v>273.338569931841</v>
       </c>
       <c r="G25" t="n">
-        <v>187.3591107482108</v>
+        <v>187.3591107482107</v>
       </c>
       <c r="H25" t="n">
-        <v>115.6508893695765</v>
+        <v>115.6508893695764</v>
       </c>
       <c r="I25" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J25" t="n">
-        <v>136.2315990741175</v>
+        <v>136.2315990741176</v>
       </c>
       <c r="K25" t="n">
         <v>317.1043329484213</v>
@@ -6154,10 +6154,10 @@
         <v>581.4353955911254</v>
       </c>
       <c r="M25" t="n">
-        <v>866.1217913098811</v>
+        <v>866.1217913098812</v>
       </c>
       <c r="N25" t="n">
-        <v>1151.399433512624</v>
+        <v>1151.399433512625</v>
       </c>
       <c r="O25" t="n">
         <v>1405.066081491645</v>
@@ -6169,28 +6169,28 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R25" t="n">
-        <v>1645.558300053001</v>
+        <v>1645.558300053002</v>
       </c>
       <c r="S25" t="n">
         <v>1520.576850288156</v>
       </c>
       <c r="T25" t="n">
-        <v>1377.541459841116</v>
+        <v>1377.541459841117</v>
       </c>
       <c r="U25" t="n">
         <v>1171.026370007451</v>
       </c>
       <c r="V25" t="n">
-        <v>998.9795280498918</v>
+        <v>998.9795280498922</v>
       </c>
       <c r="W25" t="n">
-        <v>792.200004261259</v>
+        <v>792.2000042612594</v>
       </c>
       <c r="X25" t="n">
-        <v>646.8480996115695</v>
+        <v>646.84809961157</v>
       </c>
       <c r="Y25" t="n">
-        <v>508.6931667163673</v>
+        <v>508.6931667163677</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>1875.149994147037</v>
       </c>
       <c r="C26" t="n">
-        <v>1588.825123454954</v>
+        <v>1588.825123454953</v>
       </c>
       <c r="D26" t="n">
         <v>1313.197071096531</v>
@@ -6212,22 +6212,22 @@
         <v>1010.046464746615</v>
       </c>
       <c r="F26" t="n">
-        <v>681.6982062053346</v>
+        <v>681.6982062053348</v>
       </c>
       <c r="G26" t="n">
-        <v>347.2251968274007</v>
+        <v>347.2251968274009</v>
       </c>
       <c r="H26" t="n">
         <v>111.4054709019728</v>
       </c>
       <c r="I26" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J26" t="n">
-        <v>260.2054441404289</v>
+        <v>260.2054441404284</v>
       </c>
       <c r="K26" t="n">
-        <v>660.8208179075386</v>
+        <v>660.820817907538</v>
       </c>
       <c r="L26" t="n">
         <v>1210.096241442436</v>
@@ -6236,34 +6236,34 @@
         <v>1837.877529641655</v>
       </c>
       <c r="N26" t="n">
-        <v>2461.184977863255</v>
+        <v>2461.184977863254</v>
       </c>
       <c r="O26" t="n">
-        <v>3004.568888469955</v>
+        <v>3004.568888469954</v>
       </c>
       <c r="P26" t="n">
         <v>3430.660101634156</v>
       </c>
       <c r="Q26" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R26" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S26" t="n">
-        <v>3599.316468553516</v>
+        <v>3599.316468553515</v>
       </c>
       <c r="T26" t="n">
         <v>3467.054122735633</v>
       </c>
       <c r="U26" t="n">
-        <v>3295.998235820097</v>
+        <v>3295.998235820096</v>
       </c>
       <c r="V26" t="n">
         <v>3047.572994724854</v>
       </c>
       <c r="W26" t="n">
-        <v>2777.441985703068</v>
+        <v>2777.441985703067</v>
       </c>
       <c r="X26" t="n">
         <v>2486.613873690315</v>
@@ -6300,25 +6300,25 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I27" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J27" t="n">
         <v>190.9942848817978</v>
       </c>
       <c r="K27" t="n">
-        <v>256.6651674322115</v>
+        <v>518.4857520746643</v>
       </c>
       <c r="L27" t="n">
-        <v>758.4222563170914</v>
+        <v>653.1108991091197</v>
       </c>
       <c r="M27" t="n">
-        <v>1179.798592714221</v>
+        <v>1290.616977125136</v>
       </c>
       <c r="N27" t="n">
-        <v>1849.884573044239</v>
+        <v>1960.702957455154</v>
       </c>
       <c r="O27" t="n">
-        <v>2006.542958788865</v>
+        <v>2117.361343199781</v>
       </c>
       <c r="P27" t="n">
         <v>2428.220199306442</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>446.9822677845792</v>
+        <v>492.3915471094923</v>
       </c>
       <c r="C28" t="n">
-        <v>360.6837311050001</v>
+        <v>406.0930104299132</v>
       </c>
       <c r="D28" t="n">
-        <v>360.6837311050001</v>
+        <v>338.6140172659053</v>
       </c>
       <c r="E28" t="n">
-        <v>295.4082837709349</v>
+        <v>273.3385699318401</v>
       </c>
       <c r="F28" t="n">
-        <v>231.1559825213524</v>
+        <v>273.3385699318401</v>
       </c>
       <c r="G28" t="n">
-        <v>145.1765233377221</v>
+        <v>187.3591107482098</v>
       </c>
       <c r="H28" t="n">
-        <v>73.46830195908778</v>
+        <v>115.6508893695755</v>
       </c>
       <c r="I28" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J28" t="n">
-        <v>136.2315990741176</v>
+        <v>136.2315990741173</v>
       </c>
       <c r="K28" t="n">
-        <v>317.1043329484215</v>
+        <v>317.1043329484212</v>
       </c>
       <c r="L28" t="n">
-        <v>581.4353955911256</v>
+        <v>581.4353955911251</v>
       </c>
       <c r="M28" t="n">
-        <v>866.1217913098815</v>
+        <v>866.1217913098811</v>
       </c>
       <c r="N28" t="n">
         <v>1151.399433512625</v>
@@ -6412,22 +6412,22 @@
         <v>1520.576850288156</v>
       </c>
       <c r="T28" t="n">
-        <v>1377.541459841117</v>
+        <v>1460.250658816153</v>
       </c>
       <c r="U28" t="n">
-        <v>1208.326289657575</v>
+        <v>1253.735568982488</v>
       </c>
       <c r="V28" t="n">
-        <v>1036.279447700016</v>
+        <v>1081.688727024929</v>
       </c>
       <c r="W28" t="n">
-        <v>829.4999239113829</v>
+        <v>874.909203236296</v>
       </c>
       <c r="X28" t="n">
-        <v>684.1480192616933</v>
+        <v>729.5572985866065</v>
       </c>
       <c r="Y28" t="n">
-        <v>545.9930863664911</v>
+        <v>591.4023656914042</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1875.149994147038</v>
+        <v>1875.149994147037</v>
       </c>
       <c r="C29" t="n">
-        <v>1588.825123454954</v>
+        <v>1588.825123454953</v>
       </c>
       <c r="D29" t="n">
-        <v>1313.197071096531</v>
+        <v>1313.19707109653</v>
       </c>
       <c r="E29" t="n">
-        <v>1010.046464746615</v>
+        <v>1010.046464746614</v>
       </c>
       <c r="F29" t="n">
-        <v>681.6982062053352</v>
+        <v>681.6982062053343</v>
       </c>
       <c r="G29" t="n">
-        <v>347.2251968274013</v>
+        <v>347.2251968274004</v>
       </c>
       <c r="H29" t="n">
         <v>111.4054709019728</v>
@@ -6461,10 +6461,10 @@
         <v>73.46830195908778</v>
       </c>
       <c r="J29" t="n">
-        <v>260.2054441404289</v>
+        <v>260.2054441404284</v>
       </c>
       <c r="K29" t="n">
-        <v>660.8208179075386</v>
+        <v>660.820817907538</v>
       </c>
       <c r="L29" t="n">
         <v>1210.096241442436</v>
@@ -6494,19 +6494,19 @@
         <v>3467.054122735633</v>
       </c>
       <c r="U29" t="n">
-        <v>3295.998235820097</v>
+        <v>3295.998235820096</v>
       </c>
       <c r="V29" t="n">
-        <v>3047.572994724854</v>
+        <v>3047.572994724853</v>
       </c>
       <c r="W29" t="n">
-        <v>2777.441985703068</v>
+        <v>2777.441985703067</v>
       </c>
       <c r="X29" t="n">
-        <v>2486.613873690316</v>
+        <v>2486.613873690315</v>
       </c>
       <c r="Y29" t="n">
-        <v>2179.112187962832</v>
+        <v>2179.112187962831</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>190.9942848817978</v>
       </c>
       <c r="K30" t="n">
-        <v>426.9378837954004</v>
+        <v>256.6651674322115</v>
       </c>
       <c r="L30" t="n">
-        <v>928.6949726802803</v>
+        <v>758.4222563170914</v>
       </c>
       <c r="M30" t="n">
-        <v>1105.153037583796</v>
+        <v>1395.928334333107</v>
       </c>
       <c r="N30" t="n">
-        <v>1775.239017913814</v>
+        <v>1983.215532772305</v>
       </c>
       <c r="O30" t="n">
-        <v>2321.821099742403</v>
+        <v>2529.797614600894</v>
       </c>
       <c r="P30" t="n">
-        <v>2428.220199306442</v>
+        <v>2636.196714164933</v>
       </c>
       <c r="Q30" t="n">
         <v>2657.402498082636</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>470.3453116794968</v>
+        <v>470.3453116794969</v>
       </c>
       <c r="C31" t="n">
-        <v>470.3453116794968</v>
+        <v>470.3453116794969</v>
       </c>
       <c r="D31" t="n">
-        <v>402.8663185154889</v>
+        <v>402.866318515489</v>
       </c>
       <c r="E31" t="n">
-        <v>337.5908711814236</v>
+        <v>337.5908711814237</v>
       </c>
       <c r="F31" t="n">
-        <v>273.3385699318411</v>
+        <v>273.3385699318412</v>
       </c>
       <c r="G31" t="n">
-        <v>187.3591107482108</v>
+        <v>187.3591107482109</v>
       </c>
       <c r="H31" t="n">
         <v>115.6508893695765</v>
@@ -6622,16 +6622,16 @@
         <v>136.2315990741175</v>
       </c>
       <c r="K31" t="n">
-        <v>317.1043329484214</v>
+        <v>317.1043329484213</v>
       </c>
       <c r="L31" t="n">
-        <v>581.4353955911255</v>
+        <v>581.4353955911254</v>
       </c>
       <c r="M31" t="n">
-        <v>866.1217913098812</v>
+        <v>866.121791309881</v>
       </c>
       <c r="N31" t="n">
-        <v>1151.399433512625</v>
+        <v>1151.399433512624</v>
       </c>
       <c r="O31" t="n">
         <v>1405.066081491645</v>
@@ -6649,7 +6649,7 @@
         <v>1520.576850288156</v>
       </c>
       <c r="T31" t="n">
-        <v>1377.541459841117</v>
+        <v>1377.541459841116</v>
       </c>
       <c r="U31" t="n">
         <v>1171.026370007451</v>
@@ -6661,10 +6661,10 @@
         <v>792.200004261259</v>
       </c>
       <c r="X31" t="n">
-        <v>646.8480996115695</v>
+        <v>707.511063156611</v>
       </c>
       <c r="Y31" t="n">
-        <v>569.3561302614087</v>
+        <v>569.3561302614088</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1835.662347125764</v>
+        <v>1831.999994919984</v>
       </c>
       <c r="C32" t="n">
-        <v>1555.501762037545</v>
+        <v>1551.839409831765</v>
       </c>
       <c r="D32" t="n">
-        <v>1286.037995282987</v>
+        <v>1282.375643077207</v>
       </c>
       <c r="E32" t="n">
-        <v>989.0516745369354</v>
+        <v>985.3893223311552</v>
       </c>
       <c r="F32" t="n">
-        <v>666.8677015995206</v>
+        <v>663.2053493937403</v>
       </c>
       <c r="G32" t="n">
-        <v>338.5589778254516</v>
+        <v>334.8966256196712</v>
       </c>
       <c r="H32" t="n">
-        <v>105.2411852981079</v>
+        <v>105.241185298108</v>
       </c>
       <c r="I32" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="J32" t="n">
-        <v>260.205444140428</v>
+        <v>260.2054441404284</v>
       </c>
       <c r="K32" t="n">
-        <v>660.8208179075376</v>
+        <v>660.8208179075381</v>
       </c>
       <c r="L32" t="n">
         <v>1210.096241442436</v>
@@ -6710,40 +6710,40 @@
         <v>1837.877529641655</v>
       </c>
       <c r="N32" t="n">
-        <v>2461.184977863254</v>
+        <v>2461.184977863255</v>
       </c>
       <c r="O32" t="n">
-        <v>3004.568888469954</v>
+        <v>3004.568888469955</v>
       </c>
       <c r="P32" t="n">
         <v>3430.660101634156</v>
       </c>
       <c r="Q32" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954389</v>
       </c>
       <c r="R32" t="n">
-        <v>3673.415097954388</v>
+        <v>3671.978247677241</v>
       </c>
       <c r="S32" t="n">
-        <v>3605.48075415738</v>
+        <v>3601.818401951601</v>
       </c>
       <c r="T32" t="n">
-        <v>3479.382693943362</v>
+        <v>3475.720341737583</v>
       </c>
       <c r="U32" t="n">
-        <v>3314.491092631691</v>
+        <v>3310.828740425911</v>
       </c>
       <c r="V32" t="n">
-        <v>3072.230137140313</v>
+        <v>3068.567784934533</v>
       </c>
       <c r="W32" t="n">
-        <v>2808.263413722391</v>
+        <v>2804.601061516612</v>
       </c>
       <c r="X32" t="n">
-        <v>2523.599587313504</v>
+        <v>2519.937235107725</v>
       </c>
       <c r="Y32" t="n">
-        <v>2222.262187189885</v>
+        <v>2129.797903131913</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I33" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="J33" t="n">
-        <v>73.46830195908777</v>
+        <v>190.9942848817978</v>
       </c>
       <c r="K33" t="n">
-        <v>139.1391845095014</v>
+        <v>518.4857520746643</v>
       </c>
       <c r="L33" t="n">
-        <v>640.8962733943813</v>
+        <v>1020.242840959544</v>
       </c>
       <c r="M33" t="n">
-        <v>817.3543382978972</v>
+        <v>1657.74891897556</v>
       </c>
       <c r="N33" t="n">
-        <v>1459.960876960276</v>
+        <v>2165.162713997776</v>
       </c>
       <c r="O33" t="n">
-        <v>2006.542958788865</v>
+        <v>2321.821099742403</v>
       </c>
       <c r="P33" t="n">
         <v>2428.220199306442</v>
@@ -6835,73 +6835,73 @@
         <v>513.4938491320215</v>
       </c>
       <c r="C34" t="n">
-        <v>433.3595980563074</v>
+        <v>433.3595980563073</v>
       </c>
       <c r="D34" t="n">
-        <v>372.0448904961644</v>
+        <v>372.0448904961642</v>
       </c>
       <c r="E34" t="n">
-        <v>312.933728765964</v>
+        <v>312.9337287659637</v>
       </c>
       <c r="F34" t="n">
-        <v>254.8457131202464</v>
+        <v>254.8457131202459</v>
       </c>
       <c r="G34" t="n">
-        <v>175.030539540481</v>
+        <v>175.0305395404812</v>
       </c>
       <c r="H34" t="n">
-        <v>109.4866037657116</v>
+        <v>109.4866037657117</v>
       </c>
       <c r="I34" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="J34" t="n">
-        <v>142.2732153944655</v>
+        <v>142.2732153944654</v>
       </c>
       <c r="K34" t="n">
-        <v>329.1875655891173</v>
+        <v>329.1875655891171</v>
       </c>
       <c r="L34" t="n">
-        <v>599.5602445521694</v>
+        <v>599.560244552169</v>
       </c>
       <c r="M34" t="n">
-        <v>890.2882565912731</v>
+        <v>890.2882565912728</v>
       </c>
       <c r="N34" t="n">
-        <v>1181.607515114365</v>
+        <v>1181.607515114364</v>
       </c>
       <c r="O34" t="n">
         <v>1441.315779413733</v>
       </c>
       <c r="P34" t="n">
-        <v>1652.581872317802</v>
+        <v>1652.581872317801</v>
       </c>
       <c r="Q34" t="n">
-        <v>1742.192891771974</v>
+        <v>1742.192891771973</v>
       </c>
       <c r="R34" t="n">
-        <v>1700.055516219648</v>
+        <v>1700.055516219649</v>
       </c>
       <c r="S34" t="n">
-        <v>1581.238352058667</v>
+        <v>1581.238352058668</v>
       </c>
       <c r="T34" t="n">
-        <v>1444.367247215493</v>
+        <v>1444.367247215494</v>
       </c>
       <c r="U34" t="n">
-        <v>1244.016442985692</v>
+        <v>1244.016442985693</v>
       </c>
       <c r="V34" t="n">
-        <v>1078.133886631998</v>
+        <v>1078.133886631999</v>
       </c>
       <c r="W34" t="n">
-        <v>877.5186484472305</v>
+        <v>877.5186484472308</v>
       </c>
       <c r="X34" t="n">
-        <v>738.3310294014059</v>
+        <v>738.3310294014061</v>
       </c>
       <c r="Y34" t="n">
-        <v>606.3403821100685</v>
+        <v>606.3403821100686</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1830.112968714718</v>
+        <v>1830.112968714719</v>
       </c>
       <c r="C35" t="n">
         <v>1549.952383626499</v>
       </c>
       <c r="D35" t="n">
-        <v>1280.488616871941</v>
+        <v>1280.488616871942</v>
       </c>
       <c r="E35" t="n">
         <v>983.5022961258899</v>
       </c>
       <c r="F35" t="n">
-        <v>661.318323188475</v>
+        <v>661.3183231884749</v>
       </c>
       <c r="G35" t="n">
         <v>333.0095994144058</v>
       </c>
       <c r="H35" t="n">
-        <v>103.3541590928431</v>
+        <v>103.3541590928432</v>
       </c>
       <c r="I35" t="n">
-        <v>71.58127575382301</v>
+        <v>71.58127575382302</v>
       </c>
       <c r="J35" t="n">
-        <v>165.8541338771905</v>
+        <v>258.3184179351637</v>
       </c>
       <c r="K35" t="n">
-        <v>566.4695076443002</v>
+        <v>658.9337917022734</v>
       </c>
       <c r="L35" t="n">
-        <v>1115.744931179198</v>
+        <v>1208.209215237172</v>
       </c>
       <c r="M35" t="n">
-        <v>1743.526219378417</v>
+        <v>1835.990503436391</v>
       </c>
       <c r="N35" t="n">
-        <v>2366.833667600016</v>
+        <v>2459.29795165799</v>
       </c>
       <c r="O35" t="n">
-        <v>2910.217578206717</v>
+        <v>3002.68186226469</v>
       </c>
       <c r="P35" t="n">
         <v>3336.308791370918</v>
@@ -6962,16 +6962,16 @@
         <v>3579.063787691151</v>
       </c>
       <c r="S35" t="n">
-        <v>3511.129443894142</v>
+        <v>3511.129443894143</v>
       </c>
       <c r="T35" t="n">
-        <v>3385.031383680124</v>
+        <v>3385.031383680125</v>
       </c>
       <c r="U35" t="n">
-        <v>3220.139782368453</v>
+        <v>3220.139782368454</v>
       </c>
       <c r="V35" t="n">
-        <v>2977.878826877075</v>
+        <v>2977.878826877076</v>
       </c>
       <c r="W35" t="n">
         <v>2713.912103459154</v>
@@ -6980,7 +6980,7 @@
         <v>2429.248277050267</v>
       </c>
       <c r="Y35" t="n">
-        <v>2127.910876926647</v>
+        <v>2127.910876926648</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>117.9075054592596</v>
       </c>
       <c r="I36" t="n">
-        <v>71.58127575382301</v>
+        <v>71.58127575382302</v>
       </c>
       <c r="J36" t="n">
-        <v>189.107258676533</v>
+        <v>189.1072586765331</v>
       </c>
       <c r="K36" t="n">
-        <v>516.5987258693995</v>
+        <v>516.5987258693997</v>
       </c>
       <c r="L36" t="n">
-        <v>1018.355814754279</v>
+        <v>1018.35581475428</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.813879657795</v>
+        <v>1194.813879657796</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.073850755012</v>
+        <v>1847.997546838974</v>
       </c>
       <c r="O36" t="n">
         <v>2004.655932583601</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>511.6068229267568</v>
+        <v>511.6068229267575</v>
       </c>
       <c r="C37" t="n">
-        <v>431.4725718510426</v>
+        <v>431.4725718510432</v>
       </c>
       <c r="D37" t="n">
-        <v>370.1578642908996</v>
+        <v>370.1578642909001</v>
       </c>
       <c r="E37" t="n">
-        <v>311.0467025606993</v>
+        <v>311.0467025606996</v>
       </c>
       <c r="F37" t="n">
-        <v>252.9586869149816</v>
+        <v>252.9586869149819</v>
       </c>
       <c r="G37" t="n">
-        <v>173.1435133352162</v>
+        <v>173.1435133352164</v>
       </c>
       <c r="H37" t="n">
-        <v>107.5995775604468</v>
+        <v>107.5995775604469</v>
       </c>
       <c r="I37" t="n">
-        <v>71.58127575382301</v>
+        <v>71.58127575382302</v>
       </c>
       <c r="J37" t="n">
-        <v>140.3861891892008</v>
+        <v>140.3861891892006</v>
       </c>
       <c r="K37" t="n">
-        <v>327.3005393838505</v>
+        <v>327.3005393838525</v>
       </c>
       <c r="L37" t="n">
-        <v>597.6732183469026</v>
+        <v>597.6732183469045</v>
       </c>
       <c r="M37" t="n">
-        <v>888.4012303860063</v>
+        <v>888.4012303860081</v>
       </c>
       <c r="N37" t="n">
-        <v>1179.720488909098</v>
+        <v>1179.7204889091</v>
       </c>
       <c r="O37" t="n">
-        <v>1439.428753208466</v>
+        <v>1439.428753208468</v>
       </c>
       <c r="P37" t="n">
-        <v>1650.694846112535</v>
+        <v>1650.694846112537</v>
       </c>
       <c r="Q37" t="n">
-        <v>1740.305865566707</v>
+        <v>1740.305865566708</v>
       </c>
       <c r="R37" t="n">
-        <v>1698.168490014383</v>
+        <v>1698.168490014385</v>
       </c>
       <c r="S37" t="n">
-        <v>1579.351325853403</v>
+        <v>1579.351325853404</v>
       </c>
       <c r="T37" t="n">
-        <v>1442.480221010228</v>
+        <v>1442.48022101023</v>
       </c>
       <c r="U37" t="n">
-        <v>1242.129416780428</v>
+        <v>1242.129416780429</v>
       </c>
       <c r="V37" t="n">
-        <v>1076.246860426734</v>
+        <v>1076.246860426735</v>
       </c>
       <c r="W37" t="n">
-        <v>875.6316222419658</v>
+        <v>875.6316222419667</v>
       </c>
       <c r="X37" t="n">
-        <v>736.4440031961412</v>
+        <v>736.444003196142</v>
       </c>
       <c r="Y37" t="n">
-        <v>604.4533559048039</v>
+        <v>604.4533559048045</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1830.112968714718</v>
+        <v>1830.112968714719</v>
       </c>
       <c r="C38" t="n">
-        <v>1549.952383626499</v>
+        <v>1549.9523836265</v>
       </c>
       <c r="D38" t="n">
-        <v>1280.488616871941</v>
+        <v>1280.488616871942</v>
       </c>
       <c r="E38" t="n">
-        <v>983.5022961258896</v>
+        <v>983.5022961258903</v>
       </c>
       <c r="F38" t="n">
-        <v>661.3183231884748</v>
+        <v>661.3183231884755</v>
       </c>
       <c r="G38" t="n">
-        <v>333.0095994144058</v>
+        <v>333.0095994144064</v>
       </c>
       <c r="H38" t="n">
         <v>103.3541590928432</v>
       </c>
       <c r="I38" t="n">
-        <v>71.58127575382301</v>
+        <v>71.58127575382302</v>
       </c>
       <c r="J38" t="n">
         <v>258.3184179351636</v>
@@ -7178,16 +7178,16 @@
         <v>658.9337917022733</v>
       </c>
       <c r="L38" t="n">
-        <v>1208.209215237171</v>
+        <v>1115.744931179199</v>
       </c>
       <c r="M38" t="n">
-        <v>1835.99050343639</v>
+        <v>1743.526219378417</v>
       </c>
       <c r="N38" t="n">
-        <v>2459.297951657989</v>
+        <v>2366.833667600017</v>
       </c>
       <c r="O38" t="n">
-        <v>3002.68186226469</v>
+        <v>2910.217578206717</v>
       </c>
       <c r="P38" t="n">
         <v>3336.308791370918</v>
@@ -7196,28 +7196,28 @@
         <v>3579.063787691151</v>
       </c>
       <c r="R38" t="n">
-        <v>3579.063787691151</v>
+        <v>3579.063787691152</v>
       </c>
       <c r="S38" t="n">
-        <v>3511.129443894142</v>
+        <v>3511.129443894144</v>
       </c>
       <c r="T38" t="n">
-        <v>3385.031383680124</v>
+        <v>3385.031383680126</v>
       </c>
       <c r="U38" t="n">
-        <v>3220.139782368453</v>
+        <v>3220.139782368454</v>
       </c>
       <c r="V38" t="n">
-        <v>2977.878826877075</v>
+        <v>2977.878826877076</v>
       </c>
       <c r="W38" t="n">
         <v>2713.912103459154</v>
       </c>
       <c r="X38" t="n">
-        <v>2429.248277050266</v>
+        <v>2429.248277050267</v>
       </c>
       <c r="Y38" t="n">
-        <v>2127.910876926647</v>
+        <v>2127.910876926648</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>117.9075054592596</v>
       </c>
       <c r="I39" t="n">
-        <v>71.58127575382301</v>
+        <v>71.58127575382302</v>
       </c>
       <c r="J39" t="n">
         <v>189.107258676533</v>
       </c>
       <c r="K39" t="n">
-        <v>405.7803414584847</v>
+        <v>516.5987258693995</v>
       </c>
       <c r="L39" t="n">
-        <v>540.4054884929401</v>
+        <v>651.2238729038548</v>
       </c>
       <c r="M39" t="n">
-        <v>1177.911566508956</v>
+        <v>1288.729950919871</v>
       </c>
       <c r="N39" t="n">
-        <v>1847.997546838974</v>
+        <v>1958.815931249889</v>
       </c>
       <c r="O39" t="n">
-        <v>2004.655932583601</v>
+        <v>2115.474316994515</v>
       </c>
       <c r="P39" t="n">
         <v>2426.333173101178</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>511.6068229267576</v>
+        <v>511.6068229267574</v>
       </c>
       <c r="C40" t="n">
-        <v>431.4725718510433</v>
+        <v>431.4725718510431</v>
       </c>
       <c r="D40" t="n">
-        <v>370.1578642909002</v>
+        <v>370.1578642909001</v>
       </c>
       <c r="E40" t="n">
-        <v>311.0467025606997</v>
+        <v>311.0467025606996</v>
       </c>
       <c r="F40" t="n">
-        <v>252.958686914982</v>
+        <v>252.9586869149819</v>
       </c>
       <c r="G40" t="n">
-        <v>173.1435133352165</v>
+        <v>173.1435133352164</v>
       </c>
       <c r="H40" t="n">
         <v>107.5995775604469</v>
       </c>
       <c r="I40" t="n">
-        <v>71.58127575382301</v>
+        <v>71.58127575382302</v>
       </c>
       <c r="J40" t="n">
-        <v>140.3861891892005</v>
+        <v>140.3861891892007</v>
       </c>
       <c r="K40" t="n">
-        <v>327.3005393838523</v>
+        <v>327.3005393838524</v>
       </c>
       <c r="L40" t="n">
-        <v>597.6732183469043</v>
+        <v>597.6732183469044</v>
       </c>
       <c r="M40" t="n">
-        <v>888.4012303860084</v>
+        <v>888.4012303860081</v>
       </c>
       <c r="N40" t="n">
-        <v>1179.7204889091</v>
+        <v>1179.720488909099</v>
       </c>
       <c r="O40" t="n">
         <v>1439.428753208468</v>
@@ -7366,16 +7366,16 @@
         <v>1242.129416780429</v>
       </c>
       <c r="V40" t="n">
-        <v>1076.246860426735</v>
+        <v>1076.246860426734</v>
       </c>
       <c r="W40" t="n">
-        <v>875.6316222419669</v>
+        <v>875.6316222419664</v>
       </c>
       <c r="X40" t="n">
-        <v>736.4440031961421</v>
+        <v>736.4440031961417</v>
       </c>
       <c r="Y40" t="n">
-        <v>604.4533559048047</v>
+        <v>604.4533559048045</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1830.112968714718</v>
+        <v>1830.112968714719</v>
       </c>
       <c r="C41" t="n">
-        <v>1549.952383626499</v>
+        <v>1549.9523836265</v>
       </c>
       <c r="D41" t="n">
-        <v>1280.488616871941</v>
+        <v>1280.488616871942</v>
       </c>
       <c r="E41" t="n">
-        <v>983.5022961258892</v>
+        <v>983.5022961258906</v>
       </c>
       <c r="F41" t="n">
-        <v>661.3183231884743</v>
+        <v>661.3183231884758</v>
       </c>
       <c r="G41" t="n">
-        <v>333.0095994144053</v>
+        <v>333.0095994144067</v>
       </c>
       <c r="H41" t="n">
-        <v>103.3541590928421</v>
+        <v>103.3541590928433</v>
       </c>
       <c r="I41" t="n">
-        <v>71.58127575382301</v>
+        <v>71.58127575382306</v>
       </c>
       <c r="J41" t="n">
-        <v>258.3184179351636</v>
+        <v>258.3184179351637</v>
       </c>
       <c r="K41" t="n">
-        <v>566.4695076443002</v>
+        <v>658.9337917022733</v>
       </c>
       <c r="L41" t="n">
-        <v>1115.744931179198</v>
+        <v>1208.209215237171</v>
       </c>
       <c r="M41" t="n">
-        <v>1743.526219378417</v>
+        <v>1835.99050343639</v>
       </c>
       <c r="N41" t="n">
-        <v>2366.833667600016</v>
+        <v>2459.297951657989</v>
       </c>
       <c r="O41" t="n">
-        <v>2910.217578206717</v>
+        <v>2910.217578206719</v>
       </c>
       <c r="P41" t="n">
-        <v>3336.308791370918</v>
+        <v>3336.30879137092</v>
       </c>
       <c r="Q41" t="n">
-        <v>3579.063787691151</v>
+        <v>3579.063787691153</v>
       </c>
       <c r="R41" t="n">
-        <v>3579.063787691151</v>
+        <v>3579.063787691153</v>
       </c>
       <c r="S41" t="n">
-        <v>3511.129443894142</v>
+        <v>3511.129443894144</v>
       </c>
       <c r="T41" t="n">
-        <v>3385.031383680124</v>
+        <v>3385.031383680126</v>
       </c>
       <c r="U41" t="n">
-        <v>3220.139782368452</v>
+        <v>3220.139782368454</v>
       </c>
       <c r="V41" t="n">
-        <v>2977.878826877075</v>
+        <v>2977.878826877076</v>
       </c>
       <c r="W41" t="n">
-        <v>2713.912103459153</v>
+        <v>2713.912103459154</v>
       </c>
       <c r="X41" t="n">
-        <v>2429.248277050266</v>
+        <v>2429.248277050267</v>
       </c>
       <c r="Y41" t="n">
-        <v>2127.910876926647</v>
+        <v>2127.910876926648</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>985.5547705386888</v>
+        <v>985.554770538689</v>
       </c>
       <c r="C42" t="n">
-        <v>811.1017412575618</v>
+        <v>811.101741257562</v>
       </c>
       <c r="D42" t="n">
-        <v>662.1673315963105</v>
+        <v>662.1673315963108</v>
       </c>
       <c r="E42" t="n">
-        <v>502.9298765908551</v>
+        <v>502.9298765908552</v>
       </c>
       <c r="F42" t="n">
         <v>356.3953186177401</v>
@@ -7482,31 +7482,31 @@
         <v>218.9416823814676</v>
       </c>
       <c r="H42" t="n">
-        <v>117.9075054592596</v>
+        <v>117.9075054592597</v>
       </c>
       <c r="I42" t="n">
-        <v>71.58127575382301</v>
+        <v>71.58127575382306</v>
       </c>
       <c r="J42" t="n">
-        <v>71.58127575382301</v>
+        <v>189.1072586765331</v>
       </c>
       <c r="K42" t="n">
-        <v>399.0727429466895</v>
+        <v>254.7781412269468</v>
       </c>
       <c r="L42" t="n">
-        <v>533.6978899811448</v>
+        <v>748.3820033514307</v>
       </c>
       <c r="M42" t="n">
-        <v>1171.203967997161</v>
+        <v>1385.888081367447</v>
       </c>
       <c r="N42" t="n">
-        <v>1841.289948327179</v>
+        <v>2055.974061697465</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.934073537138</v>
+        <v>2212.632447442091</v>
       </c>
       <c r="P42" t="n">
-        <v>2426.333173101178</v>
+        <v>2634.309687959668</v>
       </c>
       <c r="Q42" t="n">
         <v>2655.515471877372</v>
@@ -7527,7 +7527,7 @@
         <v>1823.619263257445</v>
       </c>
       <c r="W42" t="n">
-        <v>1569.381906529243</v>
+        <v>1569.381906529244</v>
       </c>
       <c r="X42" t="n">
         <v>1361.530406323711</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>511.6068229267576</v>
+        <v>511.6068229267574</v>
       </c>
       <c r="C43" t="n">
-        <v>431.4725718510433</v>
+        <v>431.4725718510431</v>
       </c>
       <c r="D43" t="n">
-        <v>370.1578642909002</v>
+        <v>370.1578642909</v>
       </c>
       <c r="E43" t="n">
-        <v>311.0467025606998</v>
+        <v>311.0467025606995</v>
       </c>
       <c r="F43" t="n">
-        <v>252.9586869149821</v>
+        <v>252.9586869149818</v>
       </c>
       <c r="G43" t="n">
-        <v>173.1435133352167</v>
+        <v>173.1435133352163</v>
       </c>
       <c r="H43" t="n">
-        <v>107.5995775604469</v>
+        <v>107.599577560447</v>
       </c>
       <c r="I43" t="n">
-        <v>71.58127575382301</v>
+        <v>71.58127575382306</v>
       </c>
       <c r="J43" t="n">
-        <v>140.3861891892009</v>
+        <v>140.3861891892006</v>
       </c>
       <c r="K43" t="n">
-        <v>327.3005393838526</v>
+        <v>327.3005393838523</v>
       </c>
       <c r="L43" t="n">
-        <v>597.6732183469046</v>
+        <v>597.6732183469044</v>
       </c>
       <c r="M43" t="n">
-        <v>888.4012303860084</v>
+        <v>888.4012303860081</v>
       </c>
       <c r="N43" t="n">
-        <v>1179.7204889091</v>
+        <v>1179.720488909099</v>
       </c>
       <c r="O43" t="n">
         <v>1439.428753208468</v>
       </c>
       <c r="P43" t="n">
-        <v>1650.694846112537</v>
+        <v>1650.694846112536</v>
       </c>
       <c r="Q43" t="n">
-        <v>1740.305865566709</v>
+        <v>1740.305865566708</v>
       </c>
       <c r="R43" t="n">
         <v>1698.168490014385</v>
@@ -7606,10 +7606,10 @@
         <v>1076.246860426735</v>
       </c>
       <c r="W43" t="n">
-        <v>875.6316222419672</v>
+        <v>875.6316222419667</v>
       </c>
       <c r="X43" t="n">
-        <v>736.4440031961425</v>
+        <v>736.444003196142</v>
       </c>
       <c r="Y43" t="n">
         <v>604.4533559048045</v>
@@ -7631,22 +7631,22 @@
         <v>1280.488616871942</v>
       </c>
       <c r="E44" t="n">
-        <v>983.5022961258903</v>
+        <v>983.5022961258901</v>
       </c>
       <c r="F44" t="n">
-        <v>661.3183231884755</v>
+        <v>661.3183231884753</v>
       </c>
       <c r="G44" t="n">
-        <v>333.0095994144061</v>
+        <v>333.0095994144064</v>
       </c>
       <c r="H44" t="n">
-        <v>103.3541590928431</v>
+        <v>103.3541590928432</v>
       </c>
       <c r="I44" t="n">
-        <v>71.58127575382301</v>
+        <v>71.58127575382306</v>
       </c>
       <c r="J44" t="n">
-        <v>258.3184179351636</v>
+        <v>258.3184179351637</v>
       </c>
       <c r="K44" t="n">
         <v>658.9337917022733</v>
@@ -7664,10 +7664,10 @@
         <v>3002.68186226469</v>
       </c>
       <c r="P44" t="n">
-        <v>3336.308791370918</v>
+        <v>3428.773075428891</v>
       </c>
       <c r="Q44" t="n">
-        <v>3579.063787691151</v>
+        <v>3579.063787691153</v>
       </c>
       <c r="R44" t="n">
         <v>3579.063787691151</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>985.5547705386888</v>
+        <v>985.554770538689</v>
       </c>
       <c r="C45" t="n">
-        <v>811.1017412575618</v>
+        <v>811.101741257562</v>
       </c>
       <c r="D45" t="n">
-        <v>662.1673315963105</v>
+        <v>662.1673315963108</v>
       </c>
       <c r="E45" t="n">
-        <v>502.9298765908551</v>
+        <v>502.9298765908552</v>
       </c>
       <c r="F45" t="n">
         <v>356.3953186177401</v>
@@ -7719,31 +7719,31 @@
         <v>218.9416823814676</v>
       </c>
       <c r="H45" t="n">
-        <v>117.9075054592596</v>
+        <v>117.9075054592597</v>
       </c>
       <c r="I45" t="n">
-        <v>71.58127575382301</v>
+        <v>71.58127575382306</v>
       </c>
       <c r="J45" t="n">
-        <v>71.58127575382301</v>
+        <v>189.1072586765331</v>
       </c>
       <c r="K45" t="n">
-        <v>223.8331602330133</v>
+        <v>516.5987258693996</v>
       </c>
       <c r="L45" t="n">
-        <v>358.4583072674686</v>
+        <v>651.223872903855</v>
       </c>
       <c r="M45" t="n">
-        <v>995.9643852834845</v>
+        <v>1288.729950919871</v>
       </c>
       <c r="N45" t="n">
-        <v>1666.050365613502</v>
+        <v>1958.815931249889</v>
       </c>
       <c r="O45" t="n">
-        <v>2212.632447442091</v>
+        <v>2505.398013078478</v>
       </c>
       <c r="P45" t="n">
-        <v>2634.309687959668</v>
+        <v>2611.797112642517</v>
       </c>
       <c r="Q45" t="n">
         <v>2655.515471877372</v>
@@ -7764,7 +7764,7 @@
         <v>1823.619263257445</v>
       </c>
       <c r="W45" t="n">
-        <v>1569.381906529243</v>
+        <v>1569.381906529244</v>
       </c>
       <c r="X45" t="n">
         <v>1361.530406323711</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>511.6068229267591</v>
+        <v>511.6068229267573</v>
       </c>
       <c r="C46" t="n">
-        <v>431.4725718510449</v>
+        <v>431.4725718510431</v>
       </c>
       <c r="D46" t="n">
-        <v>370.1578642909019</v>
+        <v>370.1578642909001</v>
       </c>
       <c r="E46" t="n">
-        <v>311.0467025607015</v>
+        <v>311.0467025606997</v>
       </c>
       <c r="F46" t="n">
-        <v>252.9586869149839</v>
+        <v>252.958686914982</v>
       </c>
       <c r="G46" t="n">
-        <v>173.1435133352185</v>
+        <v>173.1435133352165</v>
       </c>
       <c r="H46" t="n">
-        <v>107.5995775604493</v>
+        <v>107.5995775604469</v>
       </c>
       <c r="I46" t="n">
-        <v>71.58127575382301</v>
+        <v>71.58127575382306</v>
       </c>
       <c r="J46" t="n">
-        <v>140.3861891892009</v>
+        <v>140.3861891892008</v>
       </c>
       <c r="K46" t="n">
-        <v>327.3005393838528</v>
+        <v>327.3005393838525</v>
       </c>
       <c r="L46" t="n">
-        <v>597.6732183469048</v>
+        <v>597.6732183469046</v>
       </c>
       <c r="M46" t="n">
-        <v>888.4012303860086</v>
+        <v>888.4012303860084</v>
       </c>
       <c r="N46" t="n">
-        <v>1179.7204889091</v>
+        <v>1179.720488909099</v>
       </c>
       <c r="O46" t="n">
-        <v>1439.428753208469</v>
+        <v>1439.428753208468</v>
       </c>
       <c r="P46" t="n">
-        <v>1650.694846112537</v>
+        <v>1650.694846112536</v>
       </c>
       <c r="Q46" t="n">
-        <v>1740.305865566709</v>
+        <v>1740.305865566708</v>
       </c>
       <c r="R46" t="n">
         <v>1698.168490014385</v>
       </c>
       <c r="S46" t="n">
-        <v>1579.351325853405</v>
+        <v>1579.351325853404</v>
       </c>
       <c r="T46" t="n">
-        <v>1442.480221010231</v>
+        <v>1442.48022101023</v>
       </c>
       <c r="U46" t="n">
-        <v>1242.12941678043</v>
+        <v>1242.129416780429</v>
       </c>
       <c r="V46" t="n">
-        <v>1076.246860426736</v>
+        <v>1076.246860426735</v>
       </c>
       <c r="W46" t="n">
-        <v>875.6316222419681</v>
+        <v>875.6316222419667</v>
       </c>
       <c r="X46" t="n">
-        <v>736.4440031961435</v>
+        <v>736.4440031961421</v>
       </c>
       <c r="Y46" t="n">
-        <v>604.4533559048061</v>
+        <v>604.4533559048043</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8061,10 +8061,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M3" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,16 +8538,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,10 +8769,10 @@
         <v>7.377921277065411</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>182.3202759503555</v>
       </c>
       <c r="L12" t="n">
-        <v>78.61809650538689</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065383</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,16 +9015,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>386.8697801220751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>236.3178075777139</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9252,13 +9252,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>367.4046123123268</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>206.5250066087096</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>42.455902117358</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>439.2473567855967</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,19 +9720,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>206.5250066087099</v>
       </c>
       <c r="M24" t="n">
-        <v>68.40701148213751</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>247.3921934278922</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>206.5250066087096</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>171.9926427910999</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>395.7072411205028</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,25 +10425,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>7.377921277065383</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>451.5853625580598</v>
+        <v>315.0270356488043</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>75.69834844684843</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>228.400441446257</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10674,10 +10674,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>68.40701148213773</v>
+        <v>462.2693307588665</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>324.2629478252255</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>228.4004414462572</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>152.5274749813515</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>206.52500660871</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>230.7471458459394</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>287.4019145375224</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>7.377921277065383</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>362.6047627172006</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>325.2381206720535</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11312,10 +11312,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>228.4004414462572</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>118.9167239346816</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>7.377921277065383</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>87.45555750381473</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>22.73997506782969</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>334.2632661944081</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8530230257434</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>98.94929161302591</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>92.38752233927357</v>
+        <v>134.7491374664342</v>
       </c>
       <c r="T11" t="n">
-        <v>192.3312167192737</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>307.33248304386</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>328.8211932911381</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>58.05769709393596</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>159.4122047556624</v>
+        <v>71.64403714232719</v>
       </c>
       <c r="C13" t="n">
-        <v>146.8270456723529</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.1956975919375</v>
       </c>
       <c r="E13" t="n">
         <v>126.0141872202943</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>125.0012725966564</v>
       </c>
       <c r="G13" t="n">
         <v>146.5111589513637</v>
       </c>
       <c r="H13" t="n">
-        <v>132.3826335244176</v>
+        <v>132.3826335244177</v>
       </c>
       <c r="I13" t="n">
         <v>103.1522558959535</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.2101389041964</v>
       </c>
       <c r="S13" t="n">
-        <v>185.1231296267668</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>202.9965309021384</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>265.8414332948986</v>
       </c>
       <c r="V13" t="n">
-        <v>231.7178678975531</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>174.9772095034999</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>198.16487792582</v>
       </c>
     </row>
     <row r="14">
@@ -23504,10 +23504,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>386.4562703154365</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>55.72275575802666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>134.7491374664341</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>192.3312167192737</v>
       </c>
       <c r="U14" t="n">
-        <v>205.5949517869709</v>
+        <v>230.7368224059508</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>307.3324830438601</v>
       </c>
       <c r="W14" t="n">
-        <v>328.8211932911381</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>159.4122047556625</v>
       </c>
       <c r="C16" t="n">
-        <v>146.8270456723529</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>128.1956975919375</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>126.0141872202943</v>
       </c>
       <c r="F16" t="n">
-        <v>125.0012725966563</v>
+        <v>125.0012725966564</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>146.5111589513637</v>
       </c>
       <c r="H16" t="n">
-        <v>132.3826335244176</v>
+        <v>132.3826335244177</v>
       </c>
       <c r="I16" t="n">
         <v>103.1522558959535</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.2101389041963</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>185.1231296267668</v>
+        <v>185.1231296267669</v>
       </c>
       <c r="T16" t="n">
         <v>202.9965309021384</v>
       </c>
       <c r="U16" t="n">
-        <v>210.1222963252668</v>
+        <v>265.8414332948986</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>266.1032229103161</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>162.6794171818519</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.0207103960927</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>63.60977823708667</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>34.06346244066053</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76076153638377</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>47.81864454462664</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>5.710413289896837</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>8.718501656122625</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.593499619180264</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>143.8983856031925</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>136.7733835662502</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>98.02071039609272</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>47.47117482628085</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,10 +24373,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>60.37222063057956</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>85.11966459179399</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>66.8042032323678</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>63.60977823708667</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76076153638381</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>81.88210698528617</v>
       </c>
       <c r="U28" t="n">
-        <v>36.92692045362219</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>60.05633390959115</v>
       </c>
       <c r="Y31" t="n">
-        <v>60.056333909591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-2.321778337922476e-12</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-2.476099325576797e-12</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26317,43 +26317,43 @@
         <v>225786.486712678</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="E2" t="n">
-        <v>195008.4356616435</v>
+        <v>195008.4356616434</v>
       </c>
       <c r="F2" t="n">
-        <v>195008.4356616435</v>
+        <v>195008.4356616434</v>
       </c>
       <c r="G2" t="n">
-        <v>224826.2402702102</v>
+        <v>224826.2402702101</v>
       </c>
       <c r="H2" t="n">
         <v>224826.2402702101</v>
       </c>
       <c r="I2" t="n">
-        <v>224826.2402702102</v>
+        <v>224826.2402702101</v>
       </c>
       <c r="J2" t="n">
         <v>224826.2402702102</v>
       </c>
       <c r="K2" t="n">
-        <v>224826.2402702102</v>
+        <v>224826.2402702101</v>
       </c>
       <c r="L2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="M2" t="n">
         <v>225786.4867126777</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="O2" t="n">
+        <v>225786.4867126778</v>
+      </c>
+      <c r="P2" t="n">
         <v>225786.4867126782</v>
-      </c>
-      <c r="P2" t="n">
-        <v>225786.4867126779</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49113.19548765575</v>
+        <v>49113.19548765579</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79395.76294012617</v>
+        <v>79395.76294012609</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>53995.30968591676</v>
+        <v>53995.30968591671</v>
       </c>
       <c r="M3" t="n">
         <v>162917.5281914782</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>16335.82034101996</v>
+        <v>16335.82034101984</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329330.531561994</v>
+        <v>329330.5315619939</v>
       </c>
       <c r="C4" t="n">
         <v>329330.531561994</v>
@@ -26424,13 +26424,13 @@
         <v>329330.531561994</v>
       </c>
       <c r="E4" t="n">
-        <v>69666.91563581263</v>
+        <v>69666.91563581255</v>
       </c>
       <c r="F4" t="n">
-        <v>69666.91563581263</v>
+        <v>69666.91563581256</v>
       </c>
       <c r="G4" t="n">
-        <v>131705.8277358469</v>
+        <v>131705.8277358468</v>
       </c>
       <c r="H4" t="n">
         <v>131705.8277358468</v>
@@ -26448,16 +26448,16 @@
         <v>133713.9013283007</v>
       </c>
       <c r="M4" t="n">
-        <v>136746.500210525</v>
+        <v>136746.5002105249</v>
       </c>
       <c r="N4" t="n">
         <v>136746.500210525</v>
       </c>
       <c r="O4" t="n">
-        <v>136746.5002105251</v>
+        <v>136746.500210525</v>
       </c>
       <c r="P4" t="n">
-        <v>136746.5002105251</v>
+        <v>136746.5002105249</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>70367.55973007937</v>
       </c>
       <c r="F5" t="n">
-        <v>70367.55973007937</v>
+        <v>70367.55973007939</v>
       </c>
       <c r="G5" t="n">
         <v>75528.68126939404</v>
@@ -26488,13 +26488,13 @@
         <v>75528.68126939404</v>
       </c>
       <c r="I5" t="n">
-        <v>75528.68126939406</v>
+        <v>75528.68126939404</v>
       </c>
       <c r="J5" t="n">
-        <v>75528.68126939406</v>
+        <v>75528.68126939404</v>
       </c>
       <c r="K5" t="n">
-        <v>75528.68126939406</v>
+        <v>75528.68126939404</v>
       </c>
       <c r="L5" t="n">
         <v>76041.72434256105</v>
@@ -26506,10 +26506,10 @@
         <v>74607.58442655983</v>
       </c>
       <c r="O5" t="n">
-        <v>74607.58442655983</v>
+        <v>74607.58442655986</v>
       </c>
       <c r="P5" t="n">
-        <v>74607.58442655983</v>
+        <v>74607.58442655986</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26525,43 @@
         <v>-151825.3136130777</v>
       </c>
       <c r="D6" t="n">
-        <v>-151825.3136130777</v>
+        <v>-151825.3136130778</v>
       </c>
       <c r="E6" t="n">
-        <v>-635875.4597189236</v>
+        <v>-636155.2601830239</v>
       </c>
       <c r="F6" t="n">
-        <v>54973.96029575147</v>
+        <v>54694.15983165116</v>
       </c>
       <c r="G6" t="n">
-        <v>-31521.46422268644</v>
+        <v>-31530.1937357999</v>
       </c>
       <c r="H6" t="n">
-        <v>17591.7312649692</v>
+        <v>17583.00175185592</v>
       </c>
       <c r="I6" t="n">
-        <v>17591.73126496939</v>
+        <v>17583.00175185595</v>
       </c>
       <c r="J6" t="n">
-        <v>-61804.03167515682</v>
+        <v>-61812.76118827012</v>
       </c>
       <c r="K6" t="n">
-        <v>17591.73126496933</v>
+        <v>17583.00175185592</v>
       </c>
       <c r="L6" t="n">
-        <v>-37964.44864410044</v>
+        <v>-37964.44864410059</v>
       </c>
       <c r="M6" t="n">
-        <v>-148485.1261158854</v>
+        <v>-148485.1261158852</v>
       </c>
       <c r="N6" t="n">
         <v>14432.40207559321</v>
       </c>
       <c r="O6" t="n">
-        <v>-1903.418265426677</v>
+        <v>-1903.418265426881</v>
       </c>
       <c r="P6" t="n">
-        <v>14432.40207559298</v>
+        <v>14432.40207559339</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="F2" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="G2" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="H2" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="I2" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="J2" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="K2" t="n">
         <v>81.81126978584454</v>
       </c>
       <c r="L2" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="M2" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="N2" t="n">
         <v>87.91391253367071</v>
       </c>
       <c r="O2" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="P2" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
     </row>
     <row r="3">
@@ -26747,10 +26747,10 @@
         <v>587.8431257275769</v>
       </c>
       <c r="F3" t="n">
-        <v>587.8431257275769</v>
+        <v>587.843125727577</v>
       </c>
       <c r="G3" t="n">
-        <v>587.8431257275769</v>
+        <v>587.843125727577</v>
       </c>
       <c r="H3" t="n">
         <v>587.843125727577</v>
@@ -26768,7 +26768,7 @@
         <v>587.843125727577</v>
       </c>
       <c r="M3" t="n">
-        <v>587.843125727577</v>
+        <v>587.8431257275772</v>
       </c>
       <c r="N3" t="n">
         <v>587.843125727577</v>
@@ -26796,10 +26796,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>918.3537744885971</v>
+        <v>918.353774488597</v>
       </c>
       <c r="F4" t="n">
-        <v>918.3537744885971</v>
+        <v>918.3537744885972</v>
       </c>
       <c r="G4" t="n">
         <v>918.3537744885971</v>
@@ -26808,28 +26808,28 @@
         <v>918.3537744885971</v>
       </c>
       <c r="I4" t="n">
-        <v>918.3537744885973</v>
+        <v>918.3537744885971</v>
       </c>
       <c r="J4" t="n">
-        <v>918.3537744885973</v>
+        <v>918.3537744885971</v>
       </c>
       <c r="K4" t="n">
-        <v>918.3537744885973</v>
+        <v>918.3537744885972</v>
       </c>
       <c r="L4" t="n">
-        <v>918.3537744885971</v>
+        <v>918.3537744885972</v>
       </c>
       <c r="M4" t="n">
-        <v>894.7659469227876</v>
+        <v>894.7659469227877</v>
       </c>
       <c r="N4" t="n">
-        <v>894.7659469227876</v>
+        <v>894.7659469227877</v>
       </c>
       <c r="O4" t="n">
-        <v>894.7659469227876</v>
+        <v>894.7659469227882</v>
       </c>
       <c r="P4" t="n">
-        <v>894.7659469227876</v>
+        <v>894.7659469227882</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>61.39149435956969</v>
+        <v>61.39149435956974</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>67.49413710739596</v>
+        <v>67.49413710739589</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41977542627495</v>
+        <v>20.4197754262748</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>677.339485610938</v>
+        <v>677.3394856109379</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>653.7516580451286</v>
+        <v>653.7516580451285</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.39149435956969</v>
+        <v>61.39149435956974</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>677.339485610938</v>
+        <v>677.3394856109379</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>176.0864063326568</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>160.8876272717005</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27476,7 +27476,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>75.7666190590182</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27591,7 +27591,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27619,16 +27619,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>216.5306486674267</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27667,7 +27667,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>178.2128969559303</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27695,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>153.4737275149346</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>193.4189038690647</v>
       </c>
     </row>
     <row r="7">
@@ -27789,7 +27789,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>31.76164565717804</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>348.3301366808381</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,10 +27871,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27910,16 +27910,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>300.8245888473965</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27935,13 +27935,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27983,22 +27983,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>203.9946229287758</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>25.13709405364463</v>
       </c>
     </row>
     <row r="10">
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28059,7 +28059,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>115.8205630125936</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28068,7 +28068,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="C11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="D11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="E11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="F11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="G11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="H11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="I11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>1.422481774376195</v>
       </c>
       <c r="S11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="T11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="U11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="V11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="W11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="X11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="C13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="D13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="E13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="F13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="G13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="H13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="I13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="J13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="K13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="L13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="M13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="N13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="O13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="P13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="R13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="S13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="T13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="U13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="V13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="W13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="X13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="C14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="D14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="E14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="F14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="G14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="H14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="I14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.422481774376195</v>
+        <v>1.422481774376166</v>
       </c>
       <c r="S14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="T14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="U14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="V14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="W14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="X14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="Y14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="C16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="D16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="E16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="F16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="G16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="H16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="I16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="J16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="K16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="L16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="M16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="N16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="O16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="P16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="R16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="S16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="T16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="U16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="V16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="W16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="X16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627483</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="C17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="D17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="E17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="F17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="G17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="H17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="I17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.422481774376195</v>
+        <v>1.422481774376166</v>
       </c>
       <c r="S17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="T17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="U17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="V17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="W17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="X17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Y17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="C19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="D19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="E19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="F19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="G19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="H19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="I19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="J19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="K19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="L19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="M19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="N19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="O19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="P19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Q19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="R19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="S19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="T19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="U19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="V19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="W19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="X19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Y19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="C20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="D20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="E20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="F20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="G20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="H20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="I20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="T20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="U20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="V20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="W20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="X20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Y20" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="C22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="D22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="E22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="F22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="G22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="H22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="I22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="J22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="K22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="L22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="M22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="N22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="O22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="P22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Q22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="R22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="S22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="T22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="U22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="V22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="W22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="X22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Y22" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="C23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="D23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="E23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="F23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="G23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="H23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="I23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="T23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="U23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="V23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="W23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="X23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Y23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="C25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="D25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="E25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="F25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="G25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="H25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="I25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="J25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="K25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="L25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="M25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="N25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="O25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="P25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Q25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="R25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="S25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="T25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="U25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="V25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="W25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="X25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Y25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="C26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="D26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="E26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="F26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="G26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="H26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="I26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="T26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="U26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="V26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="W26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="X26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Y26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="C28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="D28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="E28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="F28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="G28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="H28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="I28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="J28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="K28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="L28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="M28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="N28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="O28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="P28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="R28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="S28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="T28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="U28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="V28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="W28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="X28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
     </row>
     <row r="29">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="C32" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="D32" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="E32" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="F32" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="G32" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="H32" t="n">
-        <v>84.28818384994793</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="I32" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1.422481774376166</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>87.91391253367081</v>
+        <v>85.71066562432537</v>
       </c>
       <c r="T32" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="U32" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="V32" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="W32" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="X32" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Y32" t="n">
-        <v>87.91391253367081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="C34" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="D34" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="E34" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="F34" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="G34" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="H34" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="I34" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="J34" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="K34" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="L34" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="M34" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="N34" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="O34" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="P34" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="R34" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="S34" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="T34" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="U34" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="V34" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="W34" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="X34" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Y34" t="n">
-        <v>87.91391253367081</v>
+        <v>87.9139125336707</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="C35" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="D35" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="E35" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="F35" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="G35" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="H35" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="I35" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.422481774376166</v>
+        <v>1.422481774376109</v>
       </c>
       <c r="S35" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="T35" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="U35" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="V35" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="W35" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="X35" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="Y35" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="C37" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="D37" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="E37" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="F37" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="G37" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="H37" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="I37" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="J37" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="K37" t="n">
-        <v>87.91391253366868</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="L37" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="M37" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="N37" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="O37" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="P37" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="R37" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="S37" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="T37" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="U37" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="V37" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="W37" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="X37" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="Y37" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367068</v>
       </c>
     </row>
     <row r="38">
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.422481774376166</v>
+        <v>1.422481774377085</v>
       </c>
       <c r="S38" t="n">
         <v>87.91391253367071</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="C41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="D41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="E41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="F41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="G41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="H41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="I41" t="n">
-        <v>87.91391253367178</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="T41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="U41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="V41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="W41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="X41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="Y41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="C43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="D43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="E43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="F43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="G43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="H43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="I43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="J43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="K43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="L43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="M43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="N43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="O43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="P43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="R43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="S43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="T43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="U43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="V43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="W43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="X43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367068</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="C44" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="D44" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="E44" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="F44" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="G44" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="H44" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="I44" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>1.422481774376166</v>
+        <v>1.422481774373915</v>
       </c>
       <c r="S44" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="T44" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="U44" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="V44" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="W44" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="X44" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="Y44" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="C46" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="D46" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="E46" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="F46" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="G46" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="H46" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="I46" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="J46" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="K46" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="L46" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="M46" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="N46" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="O46" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="P46" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="R46" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="S46" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="T46" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="U46" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="V46" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="W46" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="X46" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.9139125336708</v>
+        <v>87.91391253367075</v>
       </c>
     </row>
   </sheetData>
@@ -31987,34 +31987,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.363188445135985</v>
+        <v>2.363188445135986</v>
       </c>
       <c r="H14" t="n">
-        <v>24.20200366374892</v>
+        <v>24.20200366374893</v>
       </c>
       <c r="I14" t="n">
-        <v>91.10682253110518</v>
+        <v>91.10682253110519</v>
       </c>
       <c r="J14" t="n">
-        <v>200.5726652953605</v>
+        <v>200.5726652953606</v>
       </c>
       <c r="K14" t="n">
-        <v>300.6064321779669</v>
+        <v>300.606432177967</v>
       </c>
       <c r="L14" t="n">
         <v>372.9288605557974</v>
       </c>
       <c r="M14" t="n">
-        <v>414.9552130669844</v>
+        <v>414.9552130669845</v>
       </c>
       <c r="N14" t="n">
-        <v>421.6696222367271</v>
+        <v>421.6696222367272</v>
       </c>
       <c r="O14" t="n">
-        <v>398.1706671354061</v>
+        <v>398.1706671354062</v>
       </c>
       <c r="P14" t="n">
-        <v>339.8294523961114</v>
+        <v>339.8294523961115</v>
       </c>
       <c r="Q14" t="n">
         <v>255.1977662046789</v>
@@ -32023,13 +32023,13 @@
         <v>148.4466361667735</v>
       </c>
       <c r="S14" t="n">
-        <v>53.85115669353632</v>
+        <v>53.85115669353634</v>
       </c>
       <c r="T14" t="n">
         <v>10.34485741858278</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1890550756108788</v>
+        <v>0.1890550756108789</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I15" t="n">
-        <v>43.53366544303282</v>
+        <v>43.53366544303283</v>
       </c>
       <c r="J15" t="n">
         <v>119.4597053896013</v>
@@ -32081,34 +32081,34 @@
         <v>204.1756637727566</v>
       </c>
       <c r="L15" t="n">
-        <v>274.5393767843745</v>
+        <v>274.5393767843746</v>
       </c>
       <c r="M15" t="n">
-        <v>320.3745035215293</v>
+        <v>320.3745035215294</v>
       </c>
       <c r="N15" t="n">
-        <v>328.8538633256564</v>
+        <v>328.8538633256565</v>
       </c>
       <c r="O15" t="n">
-        <v>300.8370381258855</v>
+        <v>300.8370381258856</v>
       </c>
       <c r="P15" t="n">
         <v>241.4482453578042</v>
       </c>
       <c r="Q15" t="n">
-        <v>161.4017578412773</v>
+        <v>161.4017578412774</v>
       </c>
       <c r="R15" t="n">
-        <v>78.50478573395831</v>
+        <v>78.50478573395833</v>
       </c>
       <c r="S15" t="n">
         <v>23.48599657977629</v>
       </c>
       <c r="T15" t="n">
-        <v>5.096488986260782</v>
+        <v>5.096488986260784</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08318534798031751</v>
+        <v>0.08318534798031753</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32145,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.06004498082022</v>
+        <v>1.060044980820221</v>
       </c>
       <c r="H16" t="n">
-        <v>9.424763556747058</v>
+        <v>9.42476355674706</v>
       </c>
       <c r="I16" t="n">
-        <v>31.87844360502991</v>
+        <v>31.87844360502992</v>
       </c>
       <c r="J16" t="n">
-        <v>74.94518014398959</v>
+        <v>74.9451801439896</v>
       </c>
       <c r="K16" t="n">
         <v>123.1579532262038</v>
@@ -32172,22 +32172,22 @@
         <v>149.8325396526618</v>
       </c>
       <c r="P16" t="n">
-        <v>128.2076220439291</v>
+        <v>128.2076220439292</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.76431198486411</v>
+        <v>88.76431198486412</v>
       </c>
       <c r="R16" t="n">
-        <v>47.66347704669827</v>
+        <v>47.66347704669828</v>
       </c>
       <c r="S16" t="n">
-        <v>18.47369298393056</v>
+        <v>18.47369298393057</v>
       </c>
       <c r="T16" t="n">
-        <v>4.529283099868214</v>
+        <v>4.529283099868215</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05782063531746664</v>
+        <v>0.05782063531746665</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,34 +32224,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.363188445135985</v>
+        <v>2.363188445135986</v>
       </c>
       <c r="H17" t="n">
-        <v>24.20200366374892</v>
+        <v>24.20200366374893</v>
       </c>
       <c r="I17" t="n">
-        <v>91.10682253110518</v>
+        <v>91.10682253110519</v>
       </c>
       <c r="J17" t="n">
-        <v>200.5726652953605</v>
+        <v>200.5726652953606</v>
       </c>
       <c r="K17" t="n">
-        <v>300.6064321779669</v>
+        <v>300.606432177967</v>
       </c>
       <c r="L17" t="n">
         <v>372.9288605557974</v>
       </c>
       <c r="M17" t="n">
-        <v>414.9552130669844</v>
+        <v>414.9552130669845</v>
       </c>
       <c r="N17" t="n">
-        <v>421.6696222367271</v>
+        <v>421.6696222367272</v>
       </c>
       <c r="O17" t="n">
-        <v>398.1706671354061</v>
+        <v>398.1706671354062</v>
       </c>
       <c r="P17" t="n">
-        <v>339.8294523961114</v>
+        <v>339.8294523961115</v>
       </c>
       <c r="Q17" t="n">
         <v>255.1977662046789</v>
@@ -32260,13 +32260,13 @@
         <v>148.4466361667735</v>
       </c>
       <c r="S17" t="n">
-        <v>53.85115669353632</v>
+        <v>53.85115669353634</v>
       </c>
       <c r="T17" t="n">
         <v>10.34485741858278</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1890550756108788</v>
+        <v>0.1890550756108789</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I18" t="n">
-        <v>43.53366544303282</v>
+        <v>43.53366544303283</v>
       </c>
       <c r="J18" t="n">
         <v>119.4597053896013</v>
@@ -32318,34 +32318,34 @@
         <v>204.1756637727566</v>
       </c>
       <c r="L18" t="n">
-        <v>274.5393767843745</v>
+        <v>274.5393767843746</v>
       </c>
       <c r="M18" t="n">
-        <v>320.3745035215293</v>
+        <v>320.3745035215294</v>
       </c>
       <c r="N18" t="n">
-        <v>328.8538633256564</v>
+        <v>328.8538633256565</v>
       </c>
       <c r="O18" t="n">
-        <v>300.8370381258855</v>
+        <v>300.8370381258856</v>
       </c>
       <c r="P18" t="n">
         <v>241.4482453578042</v>
       </c>
       <c r="Q18" t="n">
-        <v>161.4017578412773</v>
+        <v>161.4017578412774</v>
       </c>
       <c r="R18" t="n">
-        <v>78.50478573395831</v>
+        <v>78.50478573395833</v>
       </c>
       <c r="S18" t="n">
         <v>23.48599657977629</v>
       </c>
       <c r="T18" t="n">
-        <v>5.096488986260782</v>
+        <v>5.096488986260784</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08318534798031751</v>
+        <v>0.08318534798031753</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,16 +32382,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.06004498082022</v>
+        <v>1.060044980820221</v>
       </c>
       <c r="H19" t="n">
-        <v>9.424763556747058</v>
+        <v>9.42476355674706</v>
       </c>
       <c r="I19" t="n">
-        <v>31.87844360502991</v>
+        <v>31.87844360502992</v>
       </c>
       <c r="J19" t="n">
-        <v>74.94518014398959</v>
+        <v>74.9451801439896</v>
       </c>
       <c r="K19" t="n">
         <v>123.1579532262038</v>
@@ -32409,22 +32409,22 @@
         <v>149.8325396526618</v>
       </c>
       <c r="P19" t="n">
-        <v>128.2076220439291</v>
+        <v>128.2076220439292</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.76431198486411</v>
+        <v>88.76431198486412</v>
       </c>
       <c r="R19" t="n">
-        <v>47.66347704669827</v>
+        <v>47.66347704669828</v>
       </c>
       <c r="S19" t="n">
-        <v>18.47369298393056</v>
+        <v>18.47369298393057</v>
       </c>
       <c r="T19" t="n">
-        <v>4.529283099868214</v>
+        <v>4.529283099868215</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05782063531746664</v>
+        <v>0.05782063531746665</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.363188445135986</v>
+        <v>2.363188445135987</v>
       </c>
       <c r="H35" t="n">
         <v>24.20200366374893</v>
       </c>
       <c r="I35" t="n">
-        <v>91.10682253110519</v>
+        <v>91.10682253110522</v>
       </c>
       <c r="J35" t="n">
-        <v>200.5726652953606</v>
+        <v>200.5726652953607</v>
       </c>
       <c r="K35" t="n">
-        <v>300.606432177967</v>
+        <v>300.6064321779671</v>
       </c>
       <c r="L35" t="n">
-        <v>372.9288605557974</v>
+        <v>372.9288605557976</v>
       </c>
       <c r="M35" t="n">
-        <v>414.9552130669845</v>
+        <v>414.9552130669847</v>
       </c>
       <c r="N35" t="n">
-        <v>421.6696222367272</v>
+        <v>421.6696222367273</v>
       </c>
       <c r="O35" t="n">
-        <v>398.1706671354062</v>
+        <v>398.1706671354063</v>
       </c>
       <c r="P35" t="n">
-        <v>339.8294523961115</v>
+        <v>339.8294523961116</v>
       </c>
       <c r="Q35" t="n">
-        <v>255.1977662046789</v>
+        <v>255.197766204679</v>
       </c>
       <c r="R35" t="n">
-        <v>148.4466361667735</v>
+        <v>148.4466361667736</v>
       </c>
       <c r="S35" t="n">
-        <v>53.85115669353634</v>
+        <v>53.85115669353636</v>
       </c>
       <c r="T35" t="n">
-        <v>10.34485741858278</v>
+        <v>10.34485741858279</v>
       </c>
       <c r="U35" t="n">
         <v>0.1890550756108789</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.264417289300826</v>
+        <v>1.264417289300827</v>
       </c>
       <c r="H36" t="n">
-        <v>12.21160908351061</v>
+        <v>12.21160908351062</v>
       </c>
       <c r="I36" t="n">
-        <v>43.53366544303283</v>
+        <v>43.53366544303285</v>
       </c>
       <c r="J36" t="n">
-        <v>119.4597053896013</v>
+        <v>119.4597053896014</v>
       </c>
       <c r="K36" t="n">
-        <v>204.1756637727566</v>
+        <v>204.1756637727567</v>
       </c>
       <c r="L36" t="n">
-        <v>274.5393767843746</v>
+        <v>274.5393767843747</v>
       </c>
       <c r="M36" t="n">
-        <v>320.3745035215294</v>
+        <v>320.3745035215296</v>
       </c>
       <c r="N36" t="n">
-        <v>328.8538633256565</v>
+        <v>328.8538633256566</v>
       </c>
       <c r="O36" t="n">
-        <v>300.8370381258856</v>
+        <v>300.8370381258857</v>
       </c>
       <c r="P36" t="n">
-        <v>241.4482453578042</v>
+        <v>241.4482453578043</v>
       </c>
       <c r="Q36" t="n">
-        <v>161.4017578412774</v>
+        <v>161.4017578412775</v>
       </c>
       <c r="R36" t="n">
-        <v>78.50478573395833</v>
+        <v>78.50478573395836</v>
       </c>
       <c r="S36" t="n">
-        <v>23.48599657977629</v>
+        <v>23.4859965797763</v>
       </c>
       <c r="T36" t="n">
-        <v>5.096488986260784</v>
+        <v>5.096488986260786</v>
       </c>
       <c r="U36" t="n">
-        <v>0.08318534798031753</v>
+        <v>0.08318534798031757</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33807,46 @@
         <v>1.060044980820221</v>
       </c>
       <c r="H37" t="n">
-        <v>9.42476355674706</v>
+        <v>9.424763556747063</v>
       </c>
       <c r="I37" t="n">
-        <v>31.87844360502992</v>
+        <v>31.87844360502993</v>
       </c>
       <c r="J37" t="n">
-        <v>74.9451801439896</v>
+        <v>74.94518014398963</v>
       </c>
       <c r="K37" t="n">
         <v>123.1579532262038</v>
       </c>
       <c r="L37" t="n">
-        <v>157.5997783303081</v>
+        <v>157.5997783303082</v>
       </c>
       <c r="M37" t="n">
-        <v>166.166869129846</v>
+        <v>166.1668691298461</v>
       </c>
       <c r="N37" t="n">
-        <v>162.2157923831526</v>
+        <v>162.2157923831527</v>
       </c>
       <c r="O37" t="n">
-        <v>149.8325396526618</v>
+        <v>149.8325396526619</v>
       </c>
       <c r="P37" t="n">
         <v>128.2076220439292</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.76431198486412</v>
+        <v>88.76431198486415</v>
       </c>
       <c r="R37" t="n">
-        <v>47.66347704669828</v>
+        <v>47.66347704669829</v>
       </c>
       <c r="S37" t="n">
         <v>18.47369298393057</v>
       </c>
       <c r="T37" t="n">
-        <v>4.529283099868215</v>
+        <v>4.529283099868216</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05782063531746665</v>
+        <v>0.05782063531746667</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34781,10 +34781,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M3" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34796,7 +34796,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35033,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,16 +35258,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>330.7994618109762</v>
+        <v>248.6545007487531</v>
       </c>
       <c r="L12" t="n">
-        <v>214.6030935098872</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M12" t="n">
         <v>178.240469599511</v>
@@ -35507,7 +35507,7 @@
         <v>425.9366065834111</v>
       </c>
       <c r="Q12" t="n">
-        <v>231.4972714911049</v>
+        <v>21.41998375525583</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.005775453591724</v>
+        <v>2.005775453591646</v>
       </c>
       <c r="K13" t="n">
         <v>121.3082368265958</v>
@@ -35574,19 +35574,19 @@
         <v>205.6095790168991</v>
       </c>
       <c r="M13" t="n">
-        <v>226.1705215179615</v>
+        <v>226.1705215179614</v>
       </c>
       <c r="N13" t="n">
-        <v>226.7677401886561</v>
+        <v>226.767740188656</v>
       </c>
       <c r="O13" t="n">
-        <v>194.8374429929764</v>
+        <v>194.8374429929763</v>
       </c>
       <c r="P13" t="n">
         <v>145.9059567350975</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.02204415944463</v>
+        <v>23.02204415944455</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>188.623375940748</v>
+        <v>188.6233759407481</v>
       </c>
       <c r="K14" t="n">
         <v>404.6619937041511</v>
       </c>
       <c r="L14" t="n">
-        <v>554.8236601362605</v>
+        <v>554.8236601362606</v>
       </c>
       <c r="M14" t="n">
-        <v>634.1225133325441</v>
+        <v>634.1225133325443</v>
       </c>
       <c r="N14" t="n">
-        <v>629.6034830521203</v>
+        <v>629.6034830521205</v>
       </c>
       <c r="O14" t="n">
-        <v>548.8726369764647</v>
+        <v>548.8726369764648</v>
       </c>
       <c r="P14" t="n">
-        <v>430.3951648123245</v>
+        <v>430.3951648123246</v>
       </c>
       <c r="Q14" t="n">
         <v>245.2070669901341</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>118.7131140633434</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>330.7994618109762</v>
+        <v>330.7994618109763</v>
       </c>
       <c r="L15" t="n">
         <v>506.8253423079595</v>
       </c>
       <c r="M15" t="n">
-        <v>178.240469599511</v>
+        <v>178.2404695995111</v>
       </c>
       <c r="N15" t="n">
-        <v>584.3819313643983</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O15" t="n">
         <v>552.1031129581706</v>
       </c>
       <c r="P15" t="n">
-        <v>107.4738379434739</v>
+        <v>343.7916455211879</v>
       </c>
       <c r="Q15" t="n">
-        <v>231.4972714911049</v>
+        <v>21.41998375525586</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.00577545359172</v>
+        <v>2.00577545359166</v>
       </c>
       <c r="K16" t="n">
         <v>121.3082368265958</v>
@@ -35811,10 +35811,10 @@
         <v>205.6095790168991</v>
       </c>
       <c r="M16" t="n">
-        <v>226.1705215179615</v>
+        <v>226.1705215179614</v>
       </c>
       <c r="N16" t="n">
-        <v>226.7677401886561</v>
+        <v>226.767740188656</v>
       </c>
       <c r="O16" t="n">
         <v>194.8374429929763</v>
@@ -35823,7 +35823,7 @@
         <v>145.9059567350975</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.02204415944463</v>
+        <v>23.02204415944457</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>188.623375940748</v>
+        <v>188.6233759407481</v>
       </c>
       <c r="K17" t="n">
         <v>404.6619937041511</v>
       </c>
       <c r="L17" t="n">
-        <v>554.8236601362605</v>
+        <v>554.8236601362606</v>
       </c>
       <c r="M17" t="n">
-        <v>634.1225133325441</v>
+        <v>634.1225133325443</v>
       </c>
       <c r="N17" t="n">
-        <v>629.6034830521203</v>
+        <v>629.6034830521205</v>
       </c>
       <c r="O17" t="n">
-        <v>548.8726369764647</v>
+        <v>548.8726369764648</v>
       </c>
       <c r="P17" t="n">
-        <v>430.3951648123245</v>
+        <v>430.3951648123246</v>
       </c>
       <c r="Q17" t="n">
         <v>245.2070669901341</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>118.7131140633434</v>
+        <v>118.7131140633435</v>
       </c>
       <c r="K18" t="n">
-        <v>330.7994618109762</v>
+        <v>330.7994618109763</v>
       </c>
       <c r="L18" t="n">
-        <v>135.9849970045003</v>
+        <v>135.9849970045004</v>
       </c>
       <c r="M18" t="n">
         <v>643.9455333495109</v>
       </c>
       <c r="N18" t="n">
-        <v>197.5121512423231</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O18" t="n">
-        <v>525.6454059937679</v>
+        <v>158.2407936814411</v>
       </c>
       <c r="P18" t="n">
-        <v>425.9366065834111</v>
+        <v>313.9988445521836</v>
       </c>
       <c r="Q18" t="n">
-        <v>231.4972714911049</v>
+        <v>231.497271491105</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.39726981316142</v>
+        <v>63.3972698131614</v>
       </c>
       <c r="K19" t="n">
         <v>182.6997311861655</v>
@@ -36060,7 +36060,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.41353851901432</v>
+        <v>84.41353851901431</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>35.07798084029262</v>
+        <v>118.7131140633435</v>
       </c>
       <c r="K21" t="n">
-        <v>66.33422479839766</v>
+        <v>330.7994618109763</v>
       </c>
       <c r="L21" t="n">
-        <v>506.8253423079595</v>
+        <v>135.9849970045004</v>
       </c>
       <c r="M21" t="n">
-        <v>643.9455333495109</v>
+        <v>617.4878263851077</v>
       </c>
       <c r="N21" t="n">
-        <v>676.8545255858767</v>
+        <v>197.5121512423232</v>
       </c>
       <c r="O21" t="n">
         <v>552.1031129581706</v>
       </c>
       <c r="P21" t="n">
-        <v>107.473837943474</v>
+        <v>425.9366065834112</v>
       </c>
       <c r="Q21" t="n">
-        <v>21.41998375525586</v>
+        <v>231.497271491105</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.39726981316143</v>
+        <v>63.3972698131614</v>
       </c>
       <c r="K22" t="n">
         <v>182.6997311861655</v>
       </c>
       <c r="L22" t="n">
-        <v>267.0010733764689</v>
+        <v>267.0010733764688</v>
       </c>
       <c r="M22" t="n">
         <v>287.5620158775312</v>
@@ -36291,13 +36291,13 @@
         <v>288.1592345482258</v>
       </c>
       <c r="O22" t="n">
-        <v>256.2289373525461</v>
+        <v>256.228937352546</v>
       </c>
       <c r="P22" t="n">
-        <v>207.2974510946673</v>
+        <v>207.2974510946672</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.41353851901434</v>
+        <v>84.41353851901431</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>330.7994618109763</v>
       </c>
       <c r="L24" t="n">
-        <v>506.8253423079595</v>
+        <v>342.5100036132103</v>
       </c>
       <c r="M24" t="n">
-        <v>246.6474810816486</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N24" t="n">
-        <v>197.5121512423232</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O24" t="n">
-        <v>552.1031129581706</v>
+        <v>158.2407936814411</v>
       </c>
       <c r="P24" t="n">
-        <v>425.9366065834112</v>
+        <v>107.473837943474</v>
       </c>
       <c r="Q24" t="n">
         <v>231.497271491105</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.39726981316137</v>
+        <v>63.3972698131614</v>
       </c>
       <c r="K25" t="n">
         <v>182.6997311861655</v>
@@ -36534,7 +36534,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.41353851901428</v>
+        <v>84.41353851901431</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>118.7131140633435</v>
       </c>
       <c r="K27" t="n">
-        <v>66.33422479839766</v>
+        <v>330.7994618109763</v>
       </c>
       <c r="L27" t="n">
-        <v>506.8253423079595</v>
+        <v>135.9849970045004</v>
       </c>
       <c r="M27" t="n">
-        <v>425.6326630274032</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N27" t="n">
         <v>676.8545255858767</v>
@@ -36689,7 +36689,7 @@
         <v>158.2407936814411</v>
       </c>
       <c r="P27" t="n">
-        <v>425.9366065834112</v>
+        <v>313.9988445521836</v>
       </c>
       <c r="Q27" t="n">
         <v>231.497271491105</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.39726981316139</v>
+        <v>63.3972698131614</v>
       </c>
       <c r="K28" t="n">
         <v>182.6997311861655</v>
@@ -36771,7 +36771,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.4135385190143</v>
+        <v>84.41353851901431</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>118.7131140633435</v>
       </c>
       <c r="K30" t="n">
-        <v>238.3268675894976</v>
+        <v>66.33422479839766</v>
       </c>
       <c r="L30" t="n">
         <v>506.8253423079595</v>
       </c>
       <c r="M30" t="n">
-        <v>178.2404695995111</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N30" t="n">
-        <v>676.8545255858767</v>
+        <v>593.2193923628259</v>
       </c>
       <c r="O30" t="n">
         <v>552.1031129581706</v>
@@ -36929,7 +36929,7 @@
         <v>107.473837943474</v>
       </c>
       <c r="Q30" t="n">
-        <v>231.497271491105</v>
+        <v>21.41998375525586</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>118.7131140633435</v>
       </c>
       <c r="K33" t="n">
-        <v>66.33422479839766</v>
+        <v>330.7994618109763</v>
       </c>
       <c r="L33" t="n">
         <v>506.8253423079595</v>
       </c>
       <c r="M33" t="n">
-        <v>178.2404695995111</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N33" t="n">
-        <v>649.097513800383</v>
+        <v>512.5391868911274</v>
       </c>
       <c r="O33" t="n">
-        <v>552.1031129581706</v>
+        <v>158.2407936814411</v>
       </c>
       <c r="P33" t="n">
-        <v>425.9366065834112</v>
+        <v>107.473837943474</v>
       </c>
       <c r="Q33" t="n">
         <v>231.497271491105</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.49991256098764</v>
+        <v>69.49991256098753</v>
       </c>
       <c r="K34" t="n">
-        <v>188.8023739339918</v>
+        <v>188.8023739339916</v>
       </c>
       <c r="L34" t="n">
-        <v>273.103716124295</v>
+        <v>273.1037161242949</v>
       </c>
       <c r="M34" t="n">
-        <v>293.6646586253574</v>
+        <v>293.6646586253573</v>
       </c>
       <c r="N34" t="n">
-        <v>294.261877296052</v>
+        <v>294.2618772960519</v>
       </c>
       <c r="O34" t="n">
-        <v>262.3315801003723</v>
+        <v>262.3315801003722</v>
       </c>
       <c r="P34" t="n">
-        <v>213.4000938424935</v>
+        <v>213.4000938424934</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.51618126684055</v>
+        <v>90.51618126684043</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>95.22510921552274</v>
+        <v>188.6233759407481</v>
       </c>
       <c r="K35" t="n">
-        <v>404.6619937041511</v>
+        <v>404.6619937041513</v>
       </c>
       <c r="L35" t="n">
-        <v>554.8236601362606</v>
+        <v>554.8236601362607</v>
       </c>
       <c r="M35" t="n">
-        <v>634.1225133325443</v>
+        <v>634.1225133325445</v>
       </c>
       <c r="N35" t="n">
         <v>629.6034830521205</v>
       </c>
       <c r="O35" t="n">
-        <v>548.8726369764648</v>
+        <v>548.8726369764649</v>
       </c>
       <c r="P35" t="n">
-        <v>430.3951648123246</v>
+        <v>336.9968980870991</v>
       </c>
       <c r="Q35" t="n">
-        <v>245.2070669901341</v>
+        <v>245.2070669901342</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37388,19 +37388,19 @@
         <v>330.7994618109763</v>
       </c>
       <c r="L36" t="n">
-        <v>506.8253423079595</v>
+        <v>506.8253423079597</v>
       </c>
       <c r="M36" t="n">
-        <v>178.2404695995111</v>
+        <v>178.2404695995112</v>
       </c>
       <c r="N36" t="n">
-        <v>265.9191627244609</v>
+        <v>659.7814820011898</v>
       </c>
       <c r="O36" t="n">
-        <v>552.1031129581706</v>
+        <v>158.2407936814412</v>
       </c>
       <c r="P36" t="n">
-        <v>425.9366065834112</v>
+        <v>425.9366065834113</v>
       </c>
       <c r="Q36" t="n">
         <v>231.497271491105</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>69.49991256098762</v>
+        <v>69.49991256098754</v>
       </c>
       <c r="K37" t="n">
-        <v>188.8023739339896</v>
+        <v>188.8023739339917</v>
       </c>
       <c r="L37" t="n">
         <v>273.103716124295</v>
       </c>
       <c r="M37" t="n">
-        <v>293.6646586253574</v>
+        <v>293.6646586253573</v>
       </c>
       <c r="N37" t="n">
-        <v>294.261877296052</v>
+        <v>294.2618772960519</v>
       </c>
       <c r="O37" t="n">
-        <v>262.3315801003723</v>
+        <v>262.3315801003722</v>
       </c>
       <c r="P37" t="n">
         <v>213.4000938424934</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.51618126684053</v>
+        <v>90.51618126684045</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>404.6619937041511</v>
       </c>
       <c r="L38" t="n">
-        <v>554.8236601362606</v>
+        <v>461.4253934110357</v>
       </c>
       <c r="M38" t="n">
         <v>634.1225133325443</v>
@@ -37558,13 +37558,13 @@
         <v>548.8726369764648</v>
       </c>
       <c r="P38" t="n">
-        <v>336.9968980870991</v>
+        <v>430.3951648123246</v>
       </c>
       <c r="Q38" t="n">
         <v>245.2070669901341</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>9.186815169423518e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>118.7131140633435</v>
       </c>
       <c r="K39" t="n">
-        <v>218.8616997797492</v>
+        <v>330.7994618109763</v>
       </c>
       <c r="L39" t="n">
         <v>135.9849970045004</v>
@@ -37637,7 +37637,7 @@
         <v>158.2407936814411</v>
       </c>
       <c r="P39" t="n">
-        <v>425.9366065834112</v>
+        <v>313.998844552184</v>
       </c>
       <c r="Q39" t="n">
         <v>231.497271491105</v>
@@ -37780,7 +37780,7 @@
         <v>188.6233759407481</v>
       </c>
       <c r="K41" t="n">
-        <v>311.2637269789258</v>
+        <v>404.6619937041511</v>
       </c>
       <c r="L41" t="n">
         <v>554.8236601362606</v>
@@ -37792,7 +37792,7 @@
         <v>629.6034830521205</v>
       </c>
       <c r="O41" t="n">
-        <v>548.8726369764648</v>
+        <v>455.4743702512419</v>
       </c>
       <c r="P41" t="n">
         <v>430.3951648123246</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>118.7131140633435</v>
       </c>
       <c r="K42" t="n">
-        <v>330.7994618109763</v>
+        <v>66.33422479839766</v>
       </c>
       <c r="L42" t="n">
-        <v>135.9849970045004</v>
+        <v>498.5897597217009</v>
       </c>
       <c r="M42" t="n">
         <v>643.9455333495109</v>
@@ -37871,13 +37871,13 @@
         <v>676.8545255858767</v>
       </c>
       <c r="O42" t="n">
-        <v>483.4789143534946</v>
+        <v>158.2407936814411</v>
       </c>
       <c r="P42" t="n">
-        <v>107.473837943474</v>
+        <v>425.9366065834112</v>
       </c>
       <c r="Q42" t="n">
-        <v>231.497271491105</v>
+        <v>21.41998375525586</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>69.49991256098757</v>
+        <v>69.49991256098751</v>
       </c>
       <c r="K43" t="n">
-        <v>188.8023739339917</v>
+        <v>188.8023739339916</v>
       </c>
       <c r="L43" t="n">
-        <v>273.103716124295</v>
+        <v>273.1037161242949</v>
       </c>
       <c r="M43" t="n">
         <v>293.6646586253573</v>
@@ -37953,10 +37953,10 @@
         <v>262.3315801003722</v>
       </c>
       <c r="P43" t="n">
-        <v>213.4000938424934</v>
+        <v>213.4000938424933</v>
       </c>
       <c r="Q43" t="n">
-        <v>90.51618126684048</v>
+        <v>90.51618126684042</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38032,10 +38032,10 @@
         <v>548.8726369764648</v>
       </c>
       <c r="P44" t="n">
-        <v>336.9968980870991</v>
+        <v>430.3951648123246</v>
       </c>
       <c r="Q44" t="n">
-        <v>245.2070669901341</v>
+        <v>151.808800264911</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>118.7131140633435</v>
       </c>
       <c r="K45" t="n">
-        <v>153.7897823022124</v>
+        <v>330.7994618109763</v>
       </c>
       <c r="L45" t="n">
         <v>135.9849970045004</v>
@@ -38111,10 +38111,10 @@
         <v>552.1031129581706</v>
       </c>
       <c r="P45" t="n">
-        <v>425.9366065834112</v>
+        <v>107.473837943474</v>
       </c>
       <c r="Q45" t="n">
-        <v>21.41998375525586</v>
+        <v>44.15995882308555</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>69.49991256098762</v>
+        <v>69.49991256098758</v>
       </c>
       <c r="K46" t="n">
-        <v>188.8023739339918</v>
+        <v>188.8023739339917</v>
       </c>
       <c r="L46" t="n">
         <v>273.103716124295</v>
       </c>
       <c r="M46" t="n">
-        <v>293.6646586253574</v>
+        <v>293.6646586253573</v>
       </c>
       <c r="N46" t="n">
-        <v>294.261877296052</v>
+        <v>294.2618772960519</v>
       </c>
       <c r="O46" t="n">
-        <v>262.3315801003723</v>
+        <v>262.3315801003722</v>
       </c>
       <c r="P46" t="n">
         <v>213.4000938424934</v>
       </c>
       <c r="Q46" t="n">
-        <v>90.51618126684053</v>
+        <v>90.51618126684049</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
